--- a/results-store-7.xlsx
+++ b/results-store-7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofsussex-my.sharepoint.com/personal/eh555_sussex_ac_uk/Documents/Documents/2-Proposal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="8_{CEBE7FEB-7064-488D-8E90-4DD865071B5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7615AD6-15BC-475E-AD15-7CFD1BBFB2F8}"/>
+  <xr:revisionPtr revIDLastSave="134" documentId="8_{CEBE7FEB-7064-488D-8E90-4DD865071B5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A7FB3D8-7DAB-424E-929B-616FA140CB2A}"/>
   <bookViews>
-    <workbookView xWindow="-28755" yWindow="315" windowWidth="28650" windowHeight="14550" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28860" yWindow="690" windowWidth="28650" windowHeight="14805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="8" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1640" uniqueCount="162">
   <si>
     <t>layers</t>
   </si>
@@ -184,9 +184,6 @@
     <t>Columns</t>
   </si>
   <si>
-    <t>Summarising the train sheet, using means, mins or sums as appropriate</t>
-  </si>
-  <si>
     <t>Index of the set of parameters being tested</t>
   </si>
   <si>
@@ -205,16 +202,7 @@
     <t>Sum of the time taken to train all of the models in this row</t>
   </si>
   <si>
-    <t>Mean R-squared from testing all data</t>
-  </si>
-  <si>
-    <t>Sd of the mean from testing all data - would show if the mean_err is important</t>
-  </si>
-  <si>
     <t>Proportion of the training data held back for the val_loss calculation (not important after change to use test_loss instead of val_loss)</t>
-  </si>
-  <si>
-    <t>Mean error from testing all training data - would show a bias</t>
   </si>
   <si>
     <t>Mean time taken to recalc an output for all of the training input examples</t>
@@ -428,6 +416,117 @@
   </si>
   <si>
     <t>Rerun with chosen best model (1, lowest val loss) - since 100 epochs is only a bit lower loss but much slower to train</t>
+  </si>
+  <si>
+    <t>Run with Laptop, using proc.time()</t>
+  </si>
+  <si>
+    <t>Shows measures for each trained model</t>
+  </si>
+  <si>
+    <t>Summarising the train sheet across training runs to show measures for each model layers/params combination, using means, mins or sums as appropriate</t>
+  </si>
+  <si>
+    <t>Number of training inputs in training run</t>
+  </si>
+  <si>
+    <t>Index of the training run shown in this row</t>
+  </si>
+  <si>
+    <t>Mean error from testing all training data - would show a bias in the model</t>
+  </si>
+  <si>
+    <t>Sd of the mean from testing all training data - if lower than the mean_err, this shows that it is a consistent bias</t>
+  </si>
+  <si>
+    <t>Time taken to train the model in this row</t>
+  </si>
+  <si>
+    <t>Time taken to recalc an output for all of the training input examples</t>
+  </si>
+  <si>
+    <t>MSE loss on training data held back for validation</t>
+  </si>
+  <si>
+    <t>MSE loss on all training data</t>
+  </si>
+  <si>
+    <t>MSE loss on additional set of always noiseless testing data</t>
+  </si>
+  <si>
+    <t>test_per_model</t>
+  </si>
+  <si>
+    <t>Number of testing runs used to test the model</t>
+  </si>
+  <si>
+    <t>Mean number of testing inputs in each testing run</t>
+  </si>
+  <si>
+    <t>Mean MSE loss on training data held back for validation (from training sheet)</t>
+  </si>
+  <si>
+    <t>Number of training runs used to create the ensemble of models</t>
+  </si>
+  <si>
+    <t>Sum of the time taken to train all of the models in this row (from training sheet)</t>
+  </si>
+  <si>
+    <t>Mean of the mean errors from testing all training data - would show a bias in the model</t>
+  </si>
+  <si>
+    <t>Mean of the Sds of the mean from testing all training data - if lower than the mean_err, this shows that it is a consistent bias</t>
+  </si>
+  <si>
+    <t>Mean of the mean errors from testing all testing data - would show a bias in the model</t>
+  </si>
+  <si>
+    <t>Mean of the Sds of the mean from testing all testing data - if lower than the mean_err, this shows that it is a consistent bias</t>
+  </si>
+  <si>
+    <t>Mean of the mean R-squareds from testing against all training data</t>
+  </si>
+  <si>
+    <t>Mean R-squareds from testing against all training data</t>
+  </si>
+  <si>
+    <t>Mean of the mean R-squareds from testing against all testing data</t>
+  </si>
+  <si>
+    <t>Mean MSE loss on testing data</t>
+  </si>
+  <si>
+    <t>Mean time taken to recalc an output for all of the testing input examples</t>
+  </si>
+  <si>
+    <t>Mean difference between tracking errors using BSM and ML models</t>
+  </si>
+  <si>
+    <t>test_per_K</t>
+  </si>
+  <si>
+    <t>Summarising the testing measures across model layers/params combinations, using means, mins or sums as appropriate</t>
+  </si>
+  <si>
+    <t>All combinations of tested hyper-parameters shown in the order in which they were tested</t>
+  </si>
+  <si>
+    <t>Only performed for testing the model resulting from the training sheet testing against different ensemble methods</t>
+  </si>
+  <si>
+    <t>Mean absolute tracking error using BSM model prices and deltas</t>
+  </si>
+  <si>
+    <t>Mean absolute tracking error using ML model prices and deltas</t>
+  </si>
+  <si>
+    <t>The same as test_per_model except further divided to show the mean results of tracking paths per strike price</t>
+  </si>
+  <si>
+    <t>Mean absolute tracking error across strike prices using BSM model prices and deltas</t>
+  </si>
+  <si>
+    <t>Mean absolute tracking error across strike prices using ML model prices and deltas</t>
   </si>
 </sst>
 </file>
@@ -843,15 +942,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46F352D5-CEA0-4D56-BB10-50BAA8F58F7B}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:N84"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -859,15 +959,18 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="A3" s="1"/>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -891,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -899,7 +1002,7 @@
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -907,7 +1010,7 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -915,7 +1018,7 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -923,7 +1026,7 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -931,7 +1034,7 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -939,7 +1042,7 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -947,7 +1050,7 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -955,7 +1058,7 @@
         <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -963,7 +1066,7 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -971,7 +1074,7 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -979,7 +1082,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -987,7 +1090,7 @@
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -995,7 +1098,7 @@
         <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -1003,7 +1106,461 @@
         <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" t="s">
+        <v>132</v>
+      </c>
+      <c r="N36" s="3"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" t="s">
+        <v>133</v>
+      </c>
+      <c r="N37" s="3"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" t="s">
+        <v>134</v>
+      </c>
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>28</v>
+      </c>
+      <c r="B39" t="s">
+        <v>135</v>
+      </c>
+      <c r="N39" s="2"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" t="s">
+        <v>136</v>
+      </c>
+      <c r="N40" s="2"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N42" s="2"/>
+    </row>
+    <row r="43" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>20</v>
+      </c>
+      <c r="B50" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>35</v>
+      </c>
+      <c r="B51" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>24</v>
+      </c>
+      <c r="B52" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>23</v>
+      </c>
+      <c r="B54" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>18</v>
+      </c>
+      <c r="B57" t="s">
+        <v>149</v>
+      </c>
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>25</v>
+      </c>
+      <c r="B58" t="s">
+        <v>150</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>19</v>
+      </c>
+      <c r="B59" t="s">
+        <v>151</v>
+      </c>
+      <c r="N59" s="2"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>15</v>
+      </c>
+      <c r="B60" t="s">
+        <v>160</v>
+      </c>
+      <c r="N60" s="2"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>16</v>
+      </c>
+      <c r="B61" t="s">
+        <v>161</v>
+      </c>
+      <c r="N61" s="2"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>17</v>
+      </c>
+      <c r="B62" t="s">
+        <v>152</v>
+      </c>
+      <c r="N62" s="2"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B66" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A68" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>14</v>
+      </c>
+      <c r="B69" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>1</v>
+      </c>
+      <c r="B70" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>20</v>
+      </c>
+      <c r="B71" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>35</v>
+      </c>
+      <c r="B72" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>24</v>
+      </c>
+      <c r="B73" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>23</v>
+      </c>
+      <c r="B75" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>4</v>
+      </c>
+      <c r="B76" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>5</v>
+      </c>
+      <c r="B77" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>18</v>
+      </c>
+      <c r="B78" t="s">
+        <v>149</v>
+      </c>
+      <c r="N78" s="3"/>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>25</v>
+      </c>
+      <c r="B79" t="s">
+        <v>150</v>
+      </c>
+      <c r="N79" s="3"/>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>19</v>
+      </c>
+      <c r="B80" t="s">
+        <v>151</v>
+      </c>
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>15</v>
+      </c>
+      <c r="B81" t="s">
+        <v>157</v>
+      </c>
+      <c r="N81" s="2"/>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>16</v>
+      </c>
+      <c r="B82" t="s">
+        <v>158</v>
+      </c>
+      <c r="N82" s="2"/>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>17</v>
+      </c>
+      <c r="B83" t="s">
+        <v>152</v>
+      </c>
+      <c r="N83" s="2"/>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>9</v>
+      </c>
+      <c r="B84" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1015,8 +1572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P1192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P117" sqref="P117"/>
+    <sheetView topLeftCell="A79" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A115" sqref="A115:P115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1039,12 +1596,12 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G2"/>
       <c r="H2"/>
@@ -1058,7 +1615,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G3"/>
       <c r="H3"/>
@@ -1083,7 +1640,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G5"/>
       <c r="H5"/>
@@ -1206,7 +1763,7 @@
         <v>5.0065946615982903E-4</v>
       </c>
       <c r="P8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -1256,12 +1813,12 @@
         <v>2.0424356283565699E-3</v>
       </c>
       <c r="P9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G10"/>
       <c r="H10"/>
@@ -1286,7 +1843,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G12"/>
       <c r="H12"/>
@@ -1300,7 +1857,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G13"/>
       <c r="H13"/>
@@ -1409,7 +1966,7 @@
         <v>1.4272935932850199E-3</v>
       </c>
       <c r="P15" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -1459,7 +2016,7 @@
         <v>6.4142751059187897E-4</v>
       </c>
       <c r="P16" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
@@ -1509,7 +2066,7 @@
         <v>5.0065946615982903E-4</v>
       </c>
       <c r="P17" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -1559,7 +2116,7 @@
         <v>5.7742537241276405E-4</v>
       </c>
       <c r="P18" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
@@ -1609,7 +2166,7 @@
         <v>6.7763332170151002E-4</v>
       </c>
       <c r="P19" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
@@ -1659,7 +2216,7 @@
         <v>1.09651880606303E-3</v>
       </c>
       <c r="P20" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
@@ -1709,12 +2266,12 @@
         <v>1.6451674427096E-3</v>
       </c>
       <c r="P21" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G22"/>
       <c r="H22"/>
@@ -1739,7 +2296,7 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G24"/>
       <c r="H24"/>
@@ -1753,7 +2310,7 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G25"/>
       <c r="H25"/>
@@ -1862,7 +2419,7 @@
         <v>6.4830932203157297E-4</v>
       </c>
       <c r="P27" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
@@ -1912,7 +2469,7 @@
         <v>5.8078905955255805E-4</v>
       </c>
       <c r="P28" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
@@ -1962,7 +2519,7 @@
         <v>5.0065946615982903E-4</v>
       </c>
       <c r="P29" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
@@ -2012,7 +2569,7 @@
         <v>4.1607612409236099E-4</v>
       </c>
       <c r="P30" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
@@ -2062,7 +2619,7 @@
         <v>3.6596275139037202E-4</v>
       </c>
       <c r="P31" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
@@ -2112,12 +2669,12 @@
         <v>5.5969338637090499E-4</v>
       </c>
       <c r="P32" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G33"/>
       <c r="H33"/>
@@ -2142,7 +2699,7 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G35"/>
       <c r="H35"/>
@@ -2265,7 +2822,7 @@
         <v>1.6077699999999999E-3</v>
       </c>
       <c r="P38" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
@@ -2315,7 +2872,7 @@
         <v>1.0153250000000001E-3</v>
       </c>
       <c r="P39" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
@@ -2365,7 +2922,7 @@
         <v>5.8100000000000003E-4</v>
       </c>
       <c r="P40" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
@@ -2415,12 +2972,12 @@
         <v>4.0200000000000001E-4</v>
       </c>
       <c r="P41" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G42"/>
       <c r="H42"/>
@@ -2445,7 +3002,7 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G44"/>
       <c r="H44"/>
@@ -2568,7 +3125,7 @@
         <v>5.2360518211091197E-4</v>
       </c>
       <c r="P47" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
@@ -2618,7 +3175,7 @@
         <v>5.8078905955255805E-4</v>
       </c>
       <c r="P48" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
@@ -2668,7 +3225,7 @@
         <v>6.3531644430256796E-4</v>
       </c>
       <c r="P49" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
@@ -2718,12 +3275,12 @@
         <v>8.8854565090436201E-4</v>
       </c>
       <c r="P50" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G51"/>
       <c r="H51"/>
@@ -2748,7 +3305,7 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G53"/>
       <c r="H53"/>
@@ -2871,7 +3428,7 @@
         <v>7.2957210912676302E-4</v>
       </c>
       <c r="P56" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
@@ -2921,7 +3478,7 @@
         <v>5.8078905955255805E-4</v>
       </c>
       <c r="P57" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
@@ -2971,7 +3528,7 @@
         <v>4.9725187914312699E-4</v>
       </c>
       <c r="P58" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
@@ -3021,12 +3578,12 @@
         <v>4.1036921869121298E-4</v>
       </c>
       <c r="P59" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G60"/>
       <c r="H60"/>
@@ -3051,7 +3608,7 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G62"/>
       <c r="H62"/>
@@ -3065,7 +3622,7 @@
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G63"/>
       <c r="H63"/>
@@ -3174,7 +3731,7 @@
         <v>4.35E-4</v>
       </c>
       <c r="P65" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
@@ -3224,7 +3781,7 @@
         <v>4.0999999999999999E-4</v>
       </c>
       <c r="P66" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
@@ -3274,7 +3831,7 @@
         <v>4.57E-4</v>
       </c>
       <c r="P67" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
@@ -3324,12 +3881,12 @@
         <v>4.2000000000000002E-4</v>
       </c>
       <c r="P68" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G69"/>
       <c r="H69"/>
@@ -3354,7 +3911,7 @@
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G71"/>
       <c r="H71"/>
@@ -3382,7 +3939,7 @@
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G73"/>
       <c r="H73"/>
@@ -3407,7 +3964,7 @@
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G75"/>
       <c r="H75"/>
@@ -3530,7 +4087,7 @@
         <v>4.1763358714926198E-4</v>
       </c>
       <c r="P78" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
@@ -3580,7 +4137,7 @@
         <v>4.1036921869121298E-4</v>
       </c>
       <c r="P79" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
@@ -3630,7 +4187,7 @@
         <v>8.7939138721233195E-4</v>
       </c>
       <c r="P80" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
@@ -3680,12 +4237,12 @@
         <v>7.1295447564593498E-4</v>
       </c>
       <c r="P81" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G82"/>
       <c r="H82"/>
@@ -3710,7 +4267,7 @@
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G84"/>
       <c r="H84"/>
@@ -3724,7 +4281,7 @@
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G85"/>
       <c r="H85"/>
@@ -3833,7 +4390,7 @@
         <v>6.0700000000000001E-4</v>
       </c>
       <c r="P87" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
@@ -3883,7 +4440,7 @@
         <v>4.0999999999999999E-4</v>
       </c>
       <c r="P88" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
@@ -3933,7 +4490,7 @@
         <v>3.5599999999999998E-4</v>
       </c>
       <c r="P89" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
@@ -3983,12 +4540,12 @@
         <v>4.0400000000000001E-4</v>
       </c>
       <c r="P90" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G91"/>
       <c r="H91"/>
@@ -4029,7 +4586,7 @@
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G94"/>
       <c r="H94"/>
@@ -4152,12 +4709,12 @@
         <v>4.1036921869121298E-4</v>
       </c>
       <c r="P97" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G98"/>
       <c r="H98"/>
@@ -4266,12 +4823,12 @@
         <v>4.1036921869121298E-4</v>
       </c>
       <c r="P100" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G101"/>
       <c r="H101"/>
@@ -4380,12 +4937,12 @@
         <v>3.3434585555260201E-4</v>
       </c>
       <c r="P103" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G104"/>
       <c r="H104"/>
@@ -4494,7 +5051,7 @@
         <v>4.0377530158784502E-4</v>
       </c>
       <c r="P106" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.25">
@@ -4521,7 +5078,7 @@
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G109"/>
       <c r="H109"/>
@@ -4630,7 +5187,7 @@
         <v>4.1036921869121298E-4</v>
       </c>
       <c r="P111" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.25">
@@ -4644,7 +5201,10 @@
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
     </row>
-    <row r="113" spans="7:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="G113"/>
       <c r="H113"/>
       <c r="I113"/>
@@ -4655,29 +5215,107 @@
       <c r="N113" s="2"/>
       <c r="O113" s="2"/>
     </row>
-    <row r="114" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G114"/>
-      <c r="H114"/>
-      <c r="I114"/>
-      <c r="J114" s="3"/>
-      <c r="K114" s="3"/>
-      <c r="L114" s="2"/>
-      <c r="M114" s="2"/>
-      <c r="N114" s="2"/>
-      <c r="O114" s="2"/>
-    </row>
-    <row r="115" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G115"/>
-      <c r="H115"/>
-      <c r="I115"/>
-      <c r="J115" s="3"/>
-      <c r="K115" s="3"/>
-      <c r="L115" s="2"/>
-      <c r="M115" s="2"/>
-      <c r="N115" s="2"/>
-      <c r="O115" s="2"/>
-    </row>
-    <row r="116" spans="7:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>0</v>
+      </c>
+      <c r="B114" t="s">
+        <v>1</v>
+      </c>
+      <c r="C114" t="s">
+        <v>20</v>
+      </c>
+      <c r="D114" t="s">
+        <v>21</v>
+      </c>
+      <c r="E114" t="s">
+        <v>2</v>
+      </c>
+      <c r="F114" t="s">
+        <v>3</v>
+      </c>
+      <c r="G114" t="s">
+        <v>4</v>
+      </c>
+      <c r="H114" t="s">
+        <v>5</v>
+      </c>
+      <c r="I114" t="s">
+        <v>6</v>
+      </c>
+      <c r="J114" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K114" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L114" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M114" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N114" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O114" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P114" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>4</v>
+      </c>
+      <c r="B115">
+        <v>1</v>
+      </c>
+      <c r="C115">
+        <v>10</v>
+      </c>
+      <c r="D115">
+        <v>4</v>
+      </c>
+      <c r="E115">
+        <v>6053.1</v>
+      </c>
+      <c r="F115">
+        <v>0.3</v>
+      </c>
+      <c r="G115">
+        <v>0.32247391902428701</v>
+      </c>
+      <c r="H115">
+        <v>10.554170352664199</v>
+      </c>
+      <c r="I115">
+        <v>0.74383936102765302</v>
+      </c>
+      <c r="J115" s="3">
+        <v>21.599999999999898</v>
+      </c>
+      <c r="K115" s="3">
+        <v>0.17299999999995599</v>
+      </c>
+      <c r="L115" s="2">
+        <v>0.13405090272426601</v>
+      </c>
+      <c r="M115" s="2">
+        <v>2.3662944794523199E-2</v>
+      </c>
+      <c r="N115" s="2">
+        <v>6.8821419506306502E-4</v>
+      </c>
+      <c r="O115" s="2">
+        <v>4.1036921869121298E-4</v>
+      </c>
+      <c r="P115" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G116"/>
       <c r="H116"/>
       <c r="I116"/>
@@ -4688,7 +5326,7 @@
       <c r="N116" s="2"/>
       <c r="O116" s="2"/>
     </row>
-    <row r="117" spans="7:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G117"/>
       <c r="H117"/>
       <c r="I117"/>
@@ -4699,7 +5337,7 @@
       <c r="N117" s="2"/>
       <c r="O117" s="2"/>
     </row>
-    <row r="118" spans="7:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G118"/>
       <c r="H118"/>
       <c r="I118"/>
@@ -4710,7 +5348,7 @@
       <c r="N118" s="2"/>
       <c r="O118" s="2"/>
     </row>
-    <row r="119" spans="7:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G119"/>
       <c r="H119"/>
       <c r="I119"/>
@@ -4721,7 +5359,7 @@
       <c r="N119" s="2"/>
       <c r="O119" s="2"/>
     </row>
-    <row r="120" spans="7:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G120"/>
       <c r="H120"/>
       <c r="I120"/>
@@ -4732,7 +5370,7 @@
       <c r="N120" s="2"/>
       <c r="O120" s="2"/>
     </row>
-    <row r="121" spans="7:15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G121"/>
       <c r="H121"/>
       <c r="I121"/>
@@ -4743,7 +5381,7 @@
       <c r="N121" s="2"/>
       <c r="O121" s="2"/>
     </row>
-    <row r="122" spans="7:15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G122"/>
       <c r="H122"/>
       <c r="I122"/>
@@ -4754,7 +5392,7 @@
       <c r="N122" s="2"/>
       <c r="O122" s="2"/>
     </row>
-    <row r="123" spans="7:15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G123"/>
       <c r="H123"/>
       <c r="I123"/>
@@ -4765,7 +5403,7 @@
       <c r="N123" s="2"/>
       <c r="O123" s="2"/>
     </row>
-    <row r="124" spans="7:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G124"/>
       <c r="H124"/>
       <c r="I124"/>
@@ -4776,7 +5414,7 @@
       <c r="N124" s="2"/>
       <c r="O124" s="2"/>
     </row>
-    <row r="125" spans="7:15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G125"/>
       <c r="H125"/>
       <c r="I125"/>
@@ -4787,7 +5425,7 @@
       <c r="N125" s="2"/>
       <c r="O125" s="2"/>
     </row>
-    <row r="126" spans="7:15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G126"/>
       <c r="H126"/>
       <c r="I126"/>
@@ -4798,7 +5436,7 @@
       <c r="N126" s="2"/>
       <c r="O126" s="2"/>
     </row>
-    <row r="127" spans="7:15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G127"/>
       <c r="H127"/>
       <c r="I127"/>
@@ -4809,7 +5447,7 @@
       <c r="N127" s="2"/>
       <c r="O127" s="2"/>
     </row>
-    <row r="128" spans="7:15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G128"/>
       <c r="H128"/>
       <c r="I128"/>
@@ -16532,10 +17170,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N529"/>
+  <dimension ref="A1:N542"/>
   <sheetViews>
-    <sheetView topLeftCell="A482" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A519" sqref="A519:N529"/>
+    <sheetView topLeftCell="A509" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A533" sqref="A533:N533"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16556,22 +17194,22 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -16664,7 +17302,7 @@
         <v>8.8709058386331999E-4</v>
       </c>
       <c r="N8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -16708,7 +17346,7 @@
         <v>6.5582639961387897E-4</v>
       </c>
       <c r="N9" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -16752,7 +17390,7 @@
         <v>6.9530785576526197E-4</v>
       </c>
       <c r="N10" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -16796,7 +17434,7 @@
         <v>9.3172936954281005E-4</v>
       </c>
       <c r="N11" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -16840,7 +17478,7 @@
         <v>9.5534494047007997E-4</v>
       </c>
       <c r="N12" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -16884,7 +17522,7 @@
         <v>7.8723612416232503E-4</v>
       </c>
       <c r="N13" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -16928,7 +17566,7 @@
         <v>7.8659846029001802E-4</v>
       </c>
       <c r="N14" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -16972,7 +17610,7 @@
         <v>7.0405478216032302E-4</v>
       </c>
       <c r="N15" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -17016,7 +17654,7 @@
         <v>5.0065946615982903E-4</v>
       </c>
       <c r="N16" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -17060,7 +17698,7 @@
         <v>2.4343373584655601E-3</v>
       </c>
       <c r="N17" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -17104,7 +17742,7 @@
         <v>3.5176165350380298E-3</v>
       </c>
       <c r="N18" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -17148,7 +17786,7 @@
         <v>2.68168820468724E-3</v>
       </c>
       <c r="N19" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -17192,7 +17830,7 @@
         <v>3.2161039147536601E-3</v>
       </c>
       <c r="N20" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -17236,7 +17874,7 @@
         <v>3.7158101511419201E-3</v>
       </c>
       <c r="N21" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -17280,7 +17918,7 @@
         <v>3.1614704818175702E-3</v>
       </c>
       <c r="N22" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -17324,7 +17962,7 @@
         <v>4.0529818022700904E-3</v>
       </c>
       <c r="N23" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -17368,7 +18006,7 @@
         <v>3.8080525772083399E-3</v>
       </c>
       <c r="N24" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -17412,7 +18050,7 @@
         <v>3.83378256309904E-3</v>
       </c>
       <c r="N25" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -17456,7 +18094,7 @@
         <v>3.6979173401991902E-3</v>
       </c>
       <c r="N26" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -17500,17 +18138,17 @@
         <v>2.0424356283565699E-3</v>
       </c>
       <c r="N27" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -17598,7 +18236,7 @@
         <v>2.55012386829354E-3</v>
       </c>
       <c r="N32" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
@@ -17642,7 +18280,7 @@
         <v>2.09692389671985E-3</v>
       </c>
       <c r="N33" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
@@ -17686,7 +18324,7 @@
         <v>2.3252084149465802E-3</v>
       </c>
       <c r="N34" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
@@ -17730,7 +18368,7 @@
         <v>1.4272935932850199E-3</v>
       </c>
       <c r="N35" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
@@ -17774,7 +18412,7 @@
         <v>1.78666517952206E-3</v>
       </c>
       <c r="N36" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
@@ -17818,7 +18456,7 @@
         <v>1.70189785425536E-3</v>
       </c>
       <c r="N37" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
@@ -17862,7 +18500,7 @@
         <v>2.2117346816085399E-3</v>
       </c>
       <c r="N38" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
@@ -17906,7 +18544,7 @@
         <v>2.50527611692412E-3</v>
       </c>
       <c r="N39" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
@@ -17950,7 +18588,7 @@
         <v>2.6732223748734099E-3</v>
       </c>
       <c r="N40" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
@@ -17994,7 +18632,7 @@
         <v>4.1949852333800098E-3</v>
       </c>
       <c r="N41" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
@@ -18038,7 +18676,7 @@
         <v>1.0952345581164799E-3</v>
       </c>
       <c r="N42" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
@@ -18082,7 +18720,7 @@
         <v>1.02613050234854E-3</v>
       </c>
       <c r="N43" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
@@ -18126,7 +18764,7 @@
         <v>1.2064967410641699E-3</v>
       </c>
       <c r="N44" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
@@ -18170,7 +18808,7 @@
         <v>6.4142751059187897E-4</v>
       </c>
       <c r="N45" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
@@ -18214,7 +18852,7 @@
         <v>1.08316130535945E-3</v>
       </c>
       <c r="N46" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
@@ -18258,7 +18896,7 @@
         <v>9.3446104819243196E-4</v>
       </c>
       <c r="N47" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
@@ -18302,7 +18940,7 @@
         <v>1.04279876124727E-3</v>
       </c>
       <c r="N48" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
@@ -18346,7 +18984,7 @@
         <v>1.2110352423026301E-3</v>
       </c>
       <c r="N49" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
@@ -18390,7 +19028,7 @@
         <v>9.0918004106052401E-4</v>
       </c>
       <c r="N50" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
@@ -18434,7 +19072,7 @@
         <v>2.3709070530995901E-3</v>
       </c>
       <c r="N51" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
@@ -18478,7 +19116,7 @@
         <v>8.8709058386331999E-4</v>
       </c>
       <c r="N52" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
@@ -18522,7 +19160,7 @@
         <v>6.5582639961387897E-4</v>
       </c>
       <c r="N53" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
@@ -18566,7 +19204,7 @@
         <v>6.9530785576526197E-4</v>
       </c>
       <c r="N54" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
@@ -18610,7 +19248,7 @@
         <v>9.3172936954281005E-4</v>
       </c>
       <c r="N55" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
@@ -18654,7 +19292,7 @@
         <v>9.5534494047007997E-4</v>
       </c>
       <c r="N56" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
@@ -18698,7 +19336,7 @@
         <v>7.8723612416232503E-4</v>
       </c>
       <c r="N57" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
@@ -18742,7 +19380,7 @@
         <v>7.8659846029001802E-4</v>
       </c>
       <c r="N58" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
@@ -18786,7 +19424,7 @@
         <v>7.0405478216032302E-4</v>
       </c>
       <c r="N59" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
@@ -18830,7 +19468,7 @@
         <v>5.0065946615982903E-4</v>
       </c>
       <c r="N60" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
@@ -18874,7 +19512,7 @@
         <v>2.4343373584655601E-3</v>
       </c>
       <c r="N61" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
@@ -18918,7 +19556,7 @@
         <v>2.1427786562012502E-3</v>
       </c>
       <c r="N62" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
@@ -18962,7 +19600,7 @@
         <v>6.6055000897754005E-4</v>
       </c>
       <c r="N63" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
@@ -19006,7 +19644,7 @@
         <v>7.6877571741514896E-4</v>
       </c>
       <c r="N64" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
@@ -19050,7 +19688,7 @@
         <v>6.8015940304186795E-4</v>
       </c>
       <c r="N65" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
@@ -19094,7 +19732,7 @@
         <v>1.0573063955380401E-3</v>
       </c>
       <c r="N66" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
@@ -19138,7 +19776,7 @@
         <v>9.5314887699775102E-4</v>
       </c>
       <c r="N67" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
@@ -19182,7 +19820,7 @@
         <v>7.2655884432637095E-4</v>
       </c>
       <c r="N68" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
@@ -19226,7 +19864,7 @@
         <v>5.7742537241276405E-4</v>
       </c>
       <c r="N69" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
@@ -19270,7 +19908,7 @@
         <v>1.04244188399547E-3</v>
       </c>
       <c r="N70" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
@@ -19314,7 +19952,7 @@
         <v>1.3909385074474801E-3</v>
       </c>
       <c r="N71" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
@@ -19358,7 +19996,7 @@
         <v>2.07120775524948E-3</v>
       </c>
       <c r="N72" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
@@ -19402,7 +20040,7 @@
         <v>9.3608416213360602E-4</v>
       </c>
       <c r="N73" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
@@ -19446,7 +20084,7 @@
         <v>1.19118858248937E-3</v>
       </c>
       <c r="N74" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
@@ -19490,7 +20128,7 @@
         <v>6.7763332170151002E-4</v>
       </c>
       <c r="N75" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
@@ -19534,7 +20172,7 @@
         <v>1.17738731071009E-3</v>
       </c>
       <c r="N76" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
@@ -19578,7 +20216,7 @@
         <v>1.2862396950731501E-3</v>
       </c>
       <c r="N77" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
@@ -19622,7 +20260,7 @@
         <v>9.6726685175179696E-4</v>
       </c>
       <c r="N78" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
@@ -19666,7 +20304,7 @@
         <v>1.6802138253702199E-3</v>
       </c>
       <c r="N79" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
@@ -19710,7 +20348,7 @@
         <v>7.8356586945207095E-4</v>
       </c>
       <c r="N80" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
@@ -19754,7 +20392,7 @@
         <v>1.5275149400503501E-3</v>
       </c>
       <c r="N81" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
@@ -19798,7 +20436,7 @@
         <v>3.5131013124417398E-3</v>
       </c>
       <c r="N82" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
@@ -19842,7 +20480,7 @@
         <v>3.1407813998084698E-3</v>
       </c>
       <c r="N83" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
@@ -19886,7 +20524,7 @@
         <v>3.26904403708091E-3</v>
       </c>
       <c r="N84" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
@@ -19930,7 +20568,7 @@
         <v>1.25165268626933E-3</v>
       </c>
       <c r="N85" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
@@ -19974,7 +20612,7 @@
         <v>3.3465983093511399E-3</v>
       </c>
       <c r="N86" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
@@ -20018,7 +20656,7 @@
         <v>1.7544389195151601E-3</v>
       </c>
       <c r="N87" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
@@ -20062,7 +20700,7 @@
         <v>1.09651880606303E-3</v>
       </c>
       <c r="N88" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
@@ -20106,7 +20744,7 @@
         <v>2.6550548254685698E-3</v>
       </c>
       <c r="N89" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
@@ -20150,7 +20788,7 @@
         <v>1.4850009966384499E-3</v>
       </c>
       <c r="N90" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
@@ -20194,7 +20832,7 @@
         <v>2.4465675969666599E-3</v>
       </c>
       <c r="N91" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
@@ -20238,7 +20876,7 @@
         <v>5.56861528242394E-3</v>
       </c>
       <c r="N92" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
@@ -20282,7 +20920,7 @@
         <v>1.8438188083925999E-3</v>
       </c>
       <c r="N93" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
@@ -20326,7 +20964,7 @@
         <v>3.1603730725295702E-3</v>
       </c>
       <c r="N94" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
@@ -20370,7 +21008,7 @@
         <v>5.9741432163315797E-3</v>
       </c>
       <c r="N95" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
@@ -20414,7 +21052,7 @@
         <v>3.05415667985711E-3</v>
       </c>
       <c r="N96" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
@@ -20458,7 +21096,7 @@
         <v>5.9307040696215197E-3</v>
       </c>
       <c r="N97" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
@@ -20502,7 +21140,7 @@
         <v>3.4084608165508901E-3</v>
       </c>
       <c r="N98" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
@@ -20546,7 +21184,7 @@
         <v>6.2764951625051604E-3</v>
       </c>
       <c r="N99" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
@@ -20590,7 +21228,7 @@
         <v>1.6451674427096E-3</v>
       </c>
       <c r="N100" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
@@ -20634,17 +21272,17 @@
         <v>5.2036366621153298E-3</v>
       </c>
       <c r="N101" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
@@ -20732,7 +21370,7 @@
         <v>9.2290615524914603E-4</v>
       </c>
       <c r="N106" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
@@ -20776,7 +21414,7 @@
         <v>9.0198369433929502E-4</v>
       </c>
       <c r="N107" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
@@ -20820,7 +21458,7 @@
         <v>9.1336755456468302E-4</v>
       </c>
       <c r="N108" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
@@ -20864,7 +21502,7 @@
         <v>7.6473095623103102E-4</v>
       </c>
       <c r="N109" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
@@ -20908,7 +21546,7 @@
         <v>8.9408857868832797E-4</v>
       </c>
       <c r="N110" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
@@ -20952,7 +21590,7 @@
         <v>8.4998963809556195E-4</v>
       </c>
       <c r="N111" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
@@ -20996,7 +21634,7 @@
         <v>6.4830932203157297E-4</v>
       </c>
       <c r="N112" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
@@ -21040,7 +21678,7 @@
         <v>8.1507109903678702E-4</v>
       </c>
       <c r="N113" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
@@ -21084,7 +21722,7 @@
         <v>6.59099707213532E-4</v>
       </c>
       <c r="N114" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
@@ -21128,7 +21766,7 @@
         <v>1.8415934157101101E-3</v>
       </c>
       <c r="N115" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
@@ -21172,7 +21810,7 @@
         <v>8.5310822780831799E-4</v>
       </c>
       <c r="N116" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
@@ -21216,7 +21854,7 @@
         <v>7.8286947131743902E-4</v>
       </c>
       <c r="N117" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
@@ -21260,7 +21898,7 @@
         <v>7.8234999925341395E-4</v>
       </c>
       <c r="N118" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
@@ -21304,7 +21942,7 @@
         <v>6.6268792531143405E-4</v>
       </c>
       <c r="N119" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
@@ -21348,7 +21986,7 @@
         <v>8.4002751516258395E-4</v>
       </c>
       <c r="N120" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
@@ -21392,7 +22030,7 @@
         <v>7.8695490194696305E-4</v>
       </c>
       <c r="N121" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
@@ -21436,7 +22074,7 @@
         <v>5.9277607582126099E-4</v>
       </c>
       <c r="N122" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
@@ -21480,7 +22118,7 @@
         <v>7.35514917035119E-4</v>
       </c>
       <c r="N123" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
@@ -21524,7 +22162,7 @@
         <v>5.8078905955255805E-4</v>
       </c>
       <c r="N124" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
@@ -21568,7 +22206,7 @@
         <v>1.9665164519487299E-3</v>
       </c>
       <c r="N125" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.25">
@@ -21612,7 +22250,7 @@
         <v>8.8709058386331999E-4</v>
       </c>
       <c r="N126" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
@@ -21656,7 +22294,7 @@
         <v>6.5582639961387897E-4</v>
       </c>
       <c r="N127" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
@@ -21700,7 +22338,7 @@
         <v>6.9530785576526197E-4</v>
       </c>
       <c r="N128" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
@@ -21744,7 +22382,7 @@
         <v>9.3172936954281005E-4</v>
       </c>
       <c r="N129" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.25">
@@ -21788,7 +22426,7 @@
         <v>9.5534494047007997E-4</v>
       </c>
       <c r="N130" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.25">
@@ -21832,7 +22470,7 @@
         <v>7.8723612416232503E-4</v>
       </c>
       <c r="N131" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.25">
@@ -21876,7 +22514,7 @@
         <v>7.8659846029001802E-4</v>
       </c>
       <c r="N132" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.25">
@@ -21920,7 +22558,7 @@
         <v>7.0405478216032302E-4</v>
       </c>
       <c r="N133" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.25">
@@ -21964,7 +22602,7 @@
         <v>5.0065946615982903E-4</v>
       </c>
       <c r="N134" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.25">
@@ -22008,7 +22646,7 @@
         <v>2.4343373584655601E-3</v>
       </c>
       <c r="N135" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.25">
@@ -22052,7 +22690,7 @@
         <v>1.64043750170355E-3</v>
       </c>
       <c r="N136" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.25">
@@ -22096,7 +22734,7 @@
         <v>5.93975173356339E-4</v>
       </c>
       <c r="N137" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.25">
@@ -22140,7 +22778,7 @@
         <v>1.0000184003121099E-3</v>
       </c>
       <c r="N138" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.25">
@@ -22184,7 +22822,7 @@
         <v>2.4934121621752801E-3</v>
       </c>
       <c r="N139" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.25">
@@ -22228,7 +22866,7 @@
         <v>1.7354401913340499E-3</v>
       </c>
       <c r="N140" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.25">
@@ -22272,7 +22910,7 @@
         <v>1.06414450402803E-3</v>
       </c>
       <c r="N141" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.25">
@@ -22316,7 +22954,7 @@
         <v>1.2601468587842501E-3</v>
       </c>
       <c r="N142" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.25">
@@ -22360,7 +22998,7 @@
         <v>7.2450032382019797E-4</v>
       </c>
       <c r="N143" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.25">
@@ -22404,7 +23042,7 @@
         <v>4.1607612409236099E-4</v>
       </c>
       <c r="N144" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.25">
@@ -22448,7 +23086,7 @@
         <v>4.6675256026981896E-3</v>
       </c>
       <c r="N145" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.25">
@@ -22492,7 +23130,7 @@
         <v>9.8955156745352598E-4</v>
       </c>
       <c r="N146" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.25">
@@ -22536,7 +23174,7 @@
         <v>1.5405873398732599E-3</v>
       </c>
       <c r="N147" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.25">
@@ -22580,7 +23218,7 @@
         <v>2.1178525315551601E-3</v>
       </c>
       <c r="N148" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.25">
@@ -22624,7 +23262,7 @@
         <v>5.4481393737555999E-4</v>
       </c>
       <c r="N149" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.25">
@@ -22668,7 +23306,7 @@
         <v>6.4101424027587198E-4</v>
       </c>
       <c r="N150" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.25">
@@ -22712,7 +23350,7 @@
         <v>3.5267339260245199E-3</v>
       </c>
       <c r="N151" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.25">
@@ -22756,7 +23394,7 @@
         <v>7.5611078265586302E-4</v>
       </c>
       <c r="N152" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.25">
@@ -22800,7 +23438,7 @@
         <v>9.0069541450026795E-4</v>
       </c>
       <c r="N153" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.25">
@@ -22844,7 +23482,7 @@
         <v>3.6596275139037202E-4</v>
       </c>
       <c r="N154" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.25">
@@ -22888,7 +23526,7 @@
         <v>5.9095754750840496E-4</v>
       </c>
       <c r="N155" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.25">
@@ -22932,7 +23570,7 @@
         <v>9.2717378208654298E-4</v>
       </c>
       <c r="N156" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.25">
@@ -22976,7 +23614,7 @@
         <v>5.78932722567973E-4</v>
       </c>
       <c r="N157" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.25">
@@ -23020,7 +23658,7 @@
         <v>9.9759571172252704E-4</v>
       </c>
       <c r="N158" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.25">
@@ -23064,7 +23702,7 @@
         <v>1.09470170432433E-3</v>
       </c>
       <c r="N159" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.25">
@@ -23108,7 +23746,7 @@
         <v>9.0282617198791004E-4</v>
       </c>
       <c r="N160" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.25">
@@ -23152,7 +23790,7 @@
         <v>9.5624442657058796E-4</v>
       </c>
       <c r="N161" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.25">
@@ -23196,7 +23834,7 @@
         <v>5.8367576876917405E-4</v>
       </c>
       <c r="N162" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.25">
@@ -23240,7 +23878,7 @@
         <v>8.7243876147268201E-4</v>
       </c>
       <c r="N163" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.25">
@@ -23284,7 +23922,7 @@
         <v>5.5969338637090499E-4</v>
       </c>
       <c r="N164" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.25">
@@ -23328,12 +23966,12 @@
         <v>1.57566077348151E-3</v>
       </c>
       <c r="N165" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.25">
@@ -23426,7 +24064,7 @@
         <v>2.5324167682277102E-3</v>
       </c>
       <c r="N170" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.25">
@@ -23470,7 +24108,7 @@
         <v>1.94855042282582E-3</v>
       </c>
       <c r="N171" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.25">
@@ -23514,7 +24152,7 @@
         <v>2.1908678259093799E-3</v>
       </c>
       <c r="N172" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.25">
@@ -23558,7 +24196,7 @@
         <v>1.6077700985027E-3</v>
       </c>
       <c r="N173" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.25">
@@ -23602,7 +24240,7 @@
         <v>1.93311497575324E-3</v>
       </c>
       <c r="N174" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.25">
@@ -23646,7 +24284,7 @@
         <v>1.61015269143279E-3</v>
       </c>
       <c r="N175" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.25">
@@ -23690,7 +24328,7 @@
         <v>1.9360614003139599E-3</v>
       </c>
       <c r="N176" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.25">
@@ -23734,7 +24372,7 @@
         <v>2.3301620262501902E-3</v>
       </c>
       <c r="N177" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.25">
@@ -23778,7 +24416,7 @@
         <v>1.8549875563743899E-3</v>
       </c>
       <c r="N178" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.25">
@@ -23822,7 +24460,7 @@
         <v>3.4232734895310798E-3</v>
       </c>
       <c r="N179" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.25">
@@ -23866,7 +24504,7 @@
         <v>2.8702830227900402E-3</v>
       </c>
       <c r="N180" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.25">
@@ -23910,7 +24548,7 @@
         <v>1.7154190730196599E-3</v>
       </c>
       <c r="N181" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.25">
@@ -23954,7 +24592,7 @@
         <v>3.7044235984062101E-3</v>
       </c>
       <c r="N182" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.25">
@@ -23998,7 +24636,7 @@
         <v>1.6036757892404401E-3</v>
       </c>
       <c r="N183" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.25">
@@ -24042,7 +24680,7 @@
         <v>2.7303320198510499E-3</v>
       </c>
       <c r="N184" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.25">
@@ -24086,7 +24724,7 @@
         <v>2.5207659650711002E-3</v>
       </c>
       <c r="N185" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.25">
@@ -24130,7 +24768,7 @@
         <v>1.7339028611368899E-3</v>
       </c>
       <c r="N186" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.25">
@@ -24174,7 +24812,7 @@
         <v>1.52156700663022E-3</v>
       </c>
       <c r="N187" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.25">
@@ -24218,7 +24856,7 @@
         <v>1.0153248222568201E-3</v>
       </c>
       <c r="N188" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.25">
@@ -24262,7 +24900,7 @@
         <v>1.5750474655264299E-3</v>
       </c>
       <c r="N189" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.25">
@@ -24306,7 +24944,7 @@
         <v>8.5310822780831799E-4</v>
       </c>
       <c r="N190" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.25">
@@ -24350,7 +24988,7 @@
         <v>7.8286947131743902E-4</v>
       </c>
       <c r="N191" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.25">
@@ -24394,7 +25032,7 @@
         <v>7.8234999925341395E-4</v>
       </c>
       <c r="N192" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.25">
@@ -24438,7 +25076,7 @@
         <v>6.6268792531143405E-4</v>
       </c>
       <c r="N193" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.25">
@@ -24482,7 +25120,7 @@
         <v>8.4002751516258395E-4</v>
       </c>
       <c r="N194" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.25">
@@ -24526,7 +25164,7 @@
         <v>7.8695490194696305E-4</v>
       </c>
       <c r="N195" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.25">
@@ -24570,7 +25208,7 @@
         <v>5.9277607582126099E-4</v>
       </c>
       <c r="N196" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.25">
@@ -24614,7 +25252,7 @@
         <v>7.35514917035119E-4</v>
       </c>
       <c r="N197" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.25">
@@ -24658,7 +25296,7 @@
         <v>5.8078905955255805E-4</v>
       </c>
       <c r="N198" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.25">
@@ -24702,7 +25340,7 @@
         <v>1.9665164519487299E-3</v>
       </c>
       <c r="N199" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.25">
@@ -24746,7 +25384,7 @@
         <v>9.5101470104515598E-4</v>
       </c>
       <c r="N200" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.25">
@@ -24790,7 +25428,7 @@
         <v>1.06592483583318E-3</v>
       </c>
       <c r="N201" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.25">
@@ -24834,7 +25472,7 @@
         <v>1.19067137734466E-3</v>
       </c>
       <c r="N202" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.25">
@@ -24878,7 +25516,7 @@
         <v>6.2972538903341999E-4</v>
       </c>
       <c r="N203" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.25">
@@ -24922,7 +25560,7 @@
         <v>1.23270308454415E-3</v>
       </c>
       <c r="N204" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.25">
@@ -24966,7 +25604,7 @@
         <v>1.1432040864881E-3</v>
       </c>
       <c r="N205" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.25">
@@ -25010,7 +25648,7 @@
         <v>5.8906011400094397E-4</v>
       </c>
       <c r="N206" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.25">
@@ -25054,7 +25692,7 @@
         <v>4.0189763004394699E-4</v>
       </c>
       <c r="N207" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.25">
@@ -25098,7 +25736,7 @@
         <v>4.9713859240185397E-4</v>
       </c>
       <c r="N208" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.25">
@@ -25142,12 +25780,12 @@
         <v>1.2047361802307601E-3</v>
       </c>
       <c r="N209" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="211" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="212" spans="1:14" x14ac:dyDescent="0.25">
@@ -25240,7 +25878,7 @@
         <v>2.0051385501494898E-3</v>
       </c>
       <c r="N214" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="215" spans="1:14" x14ac:dyDescent="0.25">
@@ -25284,7 +25922,7 @@
         <v>6.3492858723937105E-4</v>
       </c>
       <c r="N215" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="216" spans="1:14" x14ac:dyDescent="0.25">
@@ -25328,7 +25966,7 @@
         <v>7.40588678102333E-4</v>
       </c>
       <c r="N216" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="217" spans="1:14" x14ac:dyDescent="0.25">
@@ -25372,7 +26010,7 @@
         <v>2.2252930600741702E-3</v>
       </c>
       <c r="N217" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="218" spans="1:14" x14ac:dyDescent="0.25">
@@ -25416,7 +26054,7 @@
         <v>8.13437532235876E-4</v>
       </c>
       <c r="N218" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="219" spans="1:14" x14ac:dyDescent="0.25">
@@ -25460,7 +26098,7 @@
         <v>1.2444182495819299E-3</v>
       </c>
       <c r="N219" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="220" spans="1:14" x14ac:dyDescent="0.25">
@@ -25504,7 +26142,7 @@
         <v>5.2360518211091197E-4</v>
       </c>
       <c r="N220" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="221" spans="1:14" x14ac:dyDescent="0.25">
@@ -25548,7 +26186,7 @@
         <v>1.60852231385586E-3</v>
       </c>
       <c r="N221" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="222" spans="1:14" x14ac:dyDescent="0.25">
@@ -25592,7 +26230,7 @@
         <v>6.8281800793871595E-4</v>
       </c>
       <c r="N222" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="223" spans="1:14" x14ac:dyDescent="0.25">
@@ -25636,7 +26274,7 @@
         <v>1.6441612982101099E-3</v>
       </c>
       <c r="N223" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="224" spans="1:14" x14ac:dyDescent="0.25">
@@ -25680,7 +26318,7 @@
         <v>8.5310822780831799E-4</v>
       </c>
       <c r="N224" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="225" spans="1:14" x14ac:dyDescent="0.25">
@@ -25724,7 +26362,7 @@
         <v>7.8286947131743902E-4</v>
       </c>
       <c r="N225" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="226" spans="1:14" x14ac:dyDescent="0.25">
@@ -25768,7 +26406,7 @@
         <v>7.8234999925341395E-4</v>
       </c>
       <c r="N226" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="227" spans="1:14" x14ac:dyDescent="0.25">
@@ -25812,7 +26450,7 @@
         <v>6.6268792531143405E-4</v>
       </c>
       <c r="N227" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="228" spans="1:14" x14ac:dyDescent="0.25">
@@ -25856,7 +26494,7 @@
         <v>8.4002751516258395E-4</v>
       </c>
       <c r="N228" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="229" spans="1:14" x14ac:dyDescent="0.25">
@@ -25900,7 +26538,7 @@
         <v>7.8695490194696305E-4</v>
       </c>
       <c r="N229" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="230" spans="1:14" x14ac:dyDescent="0.25">
@@ -25944,7 +26582,7 @@
         <v>5.9277607582126099E-4</v>
       </c>
       <c r="N230" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="231" spans="1:14" x14ac:dyDescent="0.25">
@@ -25988,7 +26626,7 @@
         <v>7.35514917035119E-4</v>
       </c>
       <c r="N231" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.25">
@@ -26032,7 +26670,7 @@
         <v>5.8078905955255805E-4</v>
       </c>
       <c r="N232" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="233" spans="1:14" x14ac:dyDescent="0.25">
@@ -26076,7 +26714,7 @@
         <v>1.9665164519487299E-3</v>
       </c>
       <c r="N233" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="234" spans="1:14" x14ac:dyDescent="0.25">
@@ -26120,7 +26758,7 @@
         <v>1.1446472987893101E-3</v>
       </c>
       <c r="N234" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="235" spans="1:14" x14ac:dyDescent="0.25">
@@ -26164,7 +26802,7 @@
         <v>1.0518508235625901E-3</v>
       </c>
       <c r="N235" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="236" spans="1:14" x14ac:dyDescent="0.25">
@@ -26208,7 +26846,7 @@
         <v>1.1571420544064901E-3</v>
       </c>
       <c r="N236" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="237" spans="1:14" x14ac:dyDescent="0.25">
@@ -26252,7 +26890,7 @@
         <v>6.3531644430256796E-4</v>
       </c>
       <c r="N237" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.25">
@@ -26296,7 +26934,7 @@
         <v>1.0837543736083399E-3</v>
       </c>
       <c r="N238" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="239" spans="1:14" x14ac:dyDescent="0.25">
@@ -26340,7 +26978,7 @@
         <v>1.1155072916253399E-3</v>
       </c>
       <c r="N239" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="240" spans="1:14" x14ac:dyDescent="0.25">
@@ -26384,7 +27022,7 @@
         <v>1.1512804752373601E-3</v>
       </c>
       <c r="N240" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="241" spans="1:14" x14ac:dyDescent="0.25">
@@ -26428,7 +27066,7 @@
         <v>1.17581287795936E-3</v>
       </c>
       <c r="N241" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="242" spans="1:14" x14ac:dyDescent="0.25">
@@ -26472,7 +27110,7 @@
         <v>1.0551344780988701E-3</v>
       </c>
       <c r="N242" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="243" spans="1:14" x14ac:dyDescent="0.25">
@@ -26516,7 +27154,7 @@
         <v>1.1546382481290099E-3</v>
       </c>
       <c r="N243" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="244" spans="1:14" x14ac:dyDescent="0.25">
@@ -26560,7 +27198,7 @@
         <v>1.5242788679930199E-3</v>
       </c>
       <c r="N244" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="245" spans="1:14" x14ac:dyDescent="0.25">
@@ -26604,7 +27242,7 @@
         <v>1.41478341918529E-3</v>
       </c>
       <c r="N245" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="246" spans="1:14" x14ac:dyDescent="0.25">
@@ -26648,7 +27286,7 @@
         <v>1.35900492819066E-3</v>
       </c>
       <c r="N246" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="247" spans="1:14" x14ac:dyDescent="0.25">
@@ -26692,7 +27330,7 @@
         <v>8.8854565090436201E-4</v>
       </c>
       <c r="N247" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="248" spans="1:14" x14ac:dyDescent="0.25">
@@ -26736,7 +27374,7 @@
         <v>1.13105058243772E-3</v>
       </c>
       <c r="N248" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="249" spans="1:14" x14ac:dyDescent="0.25">
@@ -26780,7 +27418,7 @@
         <v>1.0932366271471201E-3</v>
       </c>
       <c r="N249" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="250" spans="1:14" x14ac:dyDescent="0.25">
@@ -26824,7 +27462,7 @@
         <v>1.13749141689249E-3</v>
       </c>
       <c r="N250" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="251" spans="1:14" x14ac:dyDescent="0.25">
@@ -26868,7 +27506,7 @@
         <v>1.51468679592014E-3</v>
       </c>
       <c r="N251" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="252" spans="1:14" x14ac:dyDescent="0.25">
@@ -26912,7 +27550,7 @@
         <v>1.1763537373453701E-3</v>
       </c>
       <c r="N252" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="253" spans="1:14" x14ac:dyDescent="0.25">
@@ -26956,12 +27594,12 @@
         <v>1.4239488132728501E-3</v>
       </c>
       <c r="N253" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="255" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="256" spans="1:14" x14ac:dyDescent="0.25">
@@ -27054,7 +27692,7 @@
         <v>1.0026519999999999E-3</v>
       </c>
       <c r="N258" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="259" spans="1:14" x14ac:dyDescent="0.25">
@@ -27098,7 +27736,7 @@
         <v>8.7399999999999999E-4</v>
       </c>
       <c r="N259" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="260" spans="1:14" x14ac:dyDescent="0.25">
@@ -27142,7 +27780,7 @@
         <v>1.16719E-3</v>
       </c>
       <c r="N260" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="261" spans="1:14" x14ac:dyDescent="0.25">
@@ -27186,7 +27824,7 @@
         <v>1.2755889999999999E-3</v>
       </c>
       <c r="N261" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="262" spans="1:14" x14ac:dyDescent="0.25">
@@ -27230,7 +27868,7 @@
         <v>1.214534E-3</v>
       </c>
       <c r="N262" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="263" spans="1:14" x14ac:dyDescent="0.25">
@@ -27274,7 +27912,7 @@
         <v>1.1666700000000001E-3</v>
       </c>
       <c r="N263" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="264" spans="1:14" x14ac:dyDescent="0.25">
@@ -27318,7 +27956,7 @@
         <v>8.9999999999999998E-4</v>
       </c>
       <c r="N264" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="265" spans="1:14" x14ac:dyDescent="0.25">
@@ -27362,7 +28000,7 @@
         <v>9.9500000000000001E-4</v>
       </c>
       <c r="N265" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="266" spans="1:14" x14ac:dyDescent="0.25">
@@ -27406,7 +28044,7 @@
         <v>7.2999999999999996E-4</v>
       </c>
       <c r="N266" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="267" spans="1:14" x14ac:dyDescent="0.25">
@@ -27450,7 +28088,7 @@
         <v>1.7649250000000001E-3</v>
       </c>
       <c r="N267" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="268" spans="1:14" x14ac:dyDescent="0.25">
@@ -27494,7 +28132,7 @@
         <v>8.5300000000000003E-4</v>
       </c>
       <c r="N268" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="269" spans="1:14" x14ac:dyDescent="0.25">
@@ -27538,7 +28176,7 @@
         <v>7.8299999999999995E-4</v>
       </c>
       <c r="N269" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="270" spans="1:14" x14ac:dyDescent="0.25">
@@ -27582,7 +28220,7 @@
         <v>7.8200000000000003E-4</v>
       </c>
       <c r="N270" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="271" spans="1:14" x14ac:dyDescent="0.25">
@@ -27626,7 +28264,7 @@
         <v>6.6299999999999996E-4</v>
       </c>
       <c r="N271" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="272" spans="1:14" x14ac:dyDescent="0.25">
@@ -27670,7 +28308,7 @@
         <v>8.4000000000000003E-4</v>
       </c>
       <c r="N272" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="273" spans="1:14" x14ac:dyDescent="0.25">
@@ -27714,7 +28352,7 @@
         <v>7.8700000000000005E-4</v>
       </c>
       <c r="N273" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="274" spans="1:14" x14ac:dyDescent="0.25">
@@ -27758,7 +28396,7 @@
         <v>5.9299999999999999E-4</v>
       </c>
       <c r="N274" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="275" spans="1:14" x14ac:dyDescent="0.25">
@@ -27802,7 +28440,7 @@
         <v>7.36E-4</v>
       </c>
       <c r="N275" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="276" spans="1:14" x14ac:dyDescent="0.25">
@@ -27846,7 +28484,7 @@
         <v>5.8100000000000003E-4</v>
       </c>
       <c r="N276" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="277" spans="1:14" x14ac:dyDescent="0.25">
@@ -27890,7 +28528,7 @@
         <v>1.9665160000000002E-3</v>
       </c>
       <c r="N277" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="278" spans="1:14" x14ac:dyDescent="0.25">
@@ -27934,7 +28572,7 @@
         <v>9.990000000000001E-4</v>
       </c>
       <c r="N278" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="279" spans="1:14" x14ac:dyDescent="0.25">
@@ -27978,7 +28616,7 @@
         <v>6.38E-4</v>
       </c>
       <c r="N279" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="280" spans="1:14" x14ac:dyDescent="0.25">
@@ -28022,7 +28660,7 @@
         <v>6.3500000000000004E-4</v>
       </c>
       <c r="N280" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="281" spans="1:14" x14ac:dyDescent="0.25">
@@ -28066,7 +28704,7 @@
         <v>5.2599999999999999E-4</v>
       </c>
       <c r="N281" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="282" spans="1:14" x14ac:dyDescent="0.25">
@@ -28110,7 +28748,7 @@
         <v>8.2299999999999995E-4</v>
       </c>
       <c r="N282" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="283" spans="1:14" x14ac:dyDescent="0.25">
@@ -28154,7 +28792,7 @@
         <v>7.1900000000000002E-4</v>
       </c>
       <c r="N283" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="284" spans="1:14" x14ac:dyDescent="0.25">
@@ -28198,7 +28836,7 @@
         <v>5.7600000000000001E-4</v>
       </c>
       <c r="N284" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="285" spans="1:14" x14ac:dyDescent="0.25">
@@ -28242,7 +28880,7 @@
         <v>4.9700000000000005E-4</v>
       </c>
       <c r="N285" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="286" spans="1:14" x14ac:dyDescent="0.25">
@@ -28286,7 +28924,7 @@
         <v>5.9699999999999998E-4</v>
       </c>
       <c r="N286" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="287" spans="1:14" x14ac:dyDescent="0.25">
@@ -28330,7 +28968,7 @@
         <v>1.812777E-3</v>
       </c>
       <c r="N287" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="288" spans="1:14" x14ac:dyDescent="0.25">
@@ -28374,7 +29012,7 @@
         <v>6.9700000000000003E-4</v>
       </c>
       <c r="N288" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="289" spans="1:14" x14ac:dyDescent="0.25">
@@ -28418,7 +29056,7 @@
         <v>6.4400000000000004E-4</v>
       </c>
       <c r="N289" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="290" spans="1:14" x14ac:dyDescent="0.25">
@@ -28462,7 +29100,7 @@
         <v>6.4999999999999997E-4</v>
       </c>
       <c r="N290" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="291" spans="1:14" x14ac:dyDescent="0.25">
@@ -28506,7 +29144,7 @@
         <v>4.0999999999999999E-4</v>
       </c>
       <c r="N291" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="292" spans="1:14" x14ac:dyDescent="0.25">
@@ -28550,7 +29188,7 @@
         <v>7.1699999999999997E-4</v>
       </c>
       <c r="N292" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="293" spans="1:14" x14ac:dyDescent="0.25">
@@ -28594,7 +29232,7 @@
         <v>6.3500000000000004E-4</v>
       </c>
       <c r="N293" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="294" spans="1:14" x14ac:dyDescent="0.25">
@@ -28638,7 +29276,7 @@
         <v>5.6400000000000005E-4</v>
       </c>
       <c r="N294" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="295" spans="1:14" x14ac:dyDescent="0.25">
@@ -28682,7 +29320,7 @@
         <v>4.4999999999999999E-4</v>
       </c>
       <c r="N295" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="296" spans="1:14" x14ac:dyDescent="0.25">
@@ -28726,7 +29364,7 @@
         <v>4.55E-4</v>
       </c>
       <c r="N296" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="297" spans="1:14" x14ac:dyDescent="0.25">
@@ -28770,17 +29408,17 @@
         <v>1.6586109999999999E-3</v>
       </c>
       <c r="N297" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="299" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="300" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="301" spans="1:14" x14ac:dyDescent="0.25">
@@ -28868,7 +29506,7 @@
         <v>7.21899256721871E-4</v>
       </c>
       <c r="N302" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="303" spans="1:14" x14ac:dyDescent="0.25">
@@ -28912,7 +29550,7 @@
         <v>6.99893704862966E-4</v>
       </c>
       <c r="N303" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="304" spans="1:14" x14ac:dyDescent="0.25">
@@ -28956,7 +29594,7 @@
         <v>6.7433835495237405E-4</v>
       </c>
       <c r="N304" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="305" spans="1:14" x14ac:dyDescent="0.25">
@@ -29000,7 +29638,7 @@
         <v>4.3509404689000698E-4</v>
       </c>
       <c r="N305" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="306" spans="1:14" x14ac:dyDescent="0.25">
@@ -29044,7 +29682,7 @@
         <v>8.2724499024287195E-4</v>
       </c>
       <c r="N306" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="307" spans="1:14" x14ac:dyDescent="0.25">
@@ -29088,7 +29726,7 @@
         <v>6.3576885756601201E-4</v>
       </c>
       <c r="N307" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="308" spans="1:14" x14ac:dyDescent="0.25">
@@ -29132,7 +29770,7 @@
         <v>4.8687755966966601E-4</v>
       </c>
       <c r="N308" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="309" spans="1:14" x14ac:dyDescent="0.25">
@@ -29176,7 +29814,7 @@
         <v>5.43256398865539E-4</v>
       </c>
       <c r="N309" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="310" spans="1:14" x14ac:dyDescent="0.25">
@@ -29220,7 +29858,7 @@
         <v>5.1796230344308301E-4</v>
       </c>
       <c r="N310" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="311" spans="1:14" x14ac:dyDescent="0.25">
@@ -29264,7 +29902,7 @@
         <v>1.8832782113201E-3</v>
       </c>
       <c r="N311" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="312" spans="1:14" x14ac:dyDescent="0.25">
@@ -29308,7 +29946,7 @@
         <v>6.9699665276168701E-4</v>
       </c>
       <c r="N312" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="313" spans="1:14" x14ac:dyDescent="0.25">
@@ -29352,7 +29990,7 @@
         <v>6.4394177864860304E-4</v>
       </c>
       <c r="N313" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="314" spans="1:14" x14ac:dyDescent="0.25">
@@ -29396,7 +30034,7 @@
         <v>6.5049034753186005E-4</v>
       </c>
       <c r="N314" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="315" spans="1:14" x14ac:dyDescent="0.25">
@@ -29440,7 +30078,7 @@
         <v>4.1036921869121298E-4</v>
       </c>
       <c r="N315" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="316" spans="1:14" x14ac:dyDescent="0.25">
@@ -29484,7 +30122,7 @@
         <v>7.1731118913507695E-4</v>
       </c>
       <c r="N316" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="317" spans="1:14" x14ac:dyDescent="0.25">
@@ -29528,7 +30166,7 @@
         <v>6.3511120392451199E-4</v>
       </c>
       <c r="N317" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="318" spans="1:14" x14ac:dyDescent="0.25">
@@ -29572,7 +30210,7 @@
         <v>5.6423125685661204E-4</v>
       </c>
       <c r="N318" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="319" spans="1:14" x14ac:dyDescent="0.25">
@@ -29616,7 +30254,7 @@
         <v>4.4960906321775499E-4</v>
       </c>
       <c r="N319" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="320" spans="1:14" x14ac:dyDescent="0.25">
@@ -29660,7 +30298,7 @@
         <v>4.5546983393322598E-4</v>
       </c>
       <c r="N320" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="321" spans="1:14" x14ac:dyDescent="0.25">
@@ -29704,7 +30342,7 @@
         <v>1.6586107196982999E-3</v>
       </c>
       <c r="N321" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="322" spans="1:14" x14ac:dyDescent="0.25">
@@ -29748,7 +30386,7 @@
         <v>6.5982406943377897E-4</v>
       </c>
       <c r="N322" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="323" spans="1:14" x14ac:dyDescent="0.25">
@@ -29792,7 +30430,7 @@
         <v>6.36926234218221E-4</v>
       </c>
       <c r="N323" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="324" spans="1:14" x14ac:dyDescent="0.25">
@@ -29836,7 +30474,7 @@
         <v>7.3212987223017598E-4</v>
       </c>
       <c r="N324" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="325" spans="1:14" x14ac:dyDescent="0.25">
@@ -29880,7 +30518,7 @@
         <v>4.6122141603571401E-4</v>
       </c>
       <c r="N325" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="326" spans="1:14" x14ac:dyDescent="0.25">
@@ -29924,7 +30562,7 @@
         <v>6.70741426537646E-4</v>
       </c>
       <c r="N326" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="327" spans="1:14" x14ac:dyDescent="0.25">
@@ -29968,7 +30606,7 @@
         <v>6.8770477500643395E-4</v>
       </c>
       <c r="N327" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="328" spans="1:14" x14ac:dyDescent="0.25">
@@ -30012,7 +30650,7 @@
         <v>4.92030752165016E-4</v>
       </c>
       <c r="N328" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="329" spans="1:14" x14ac:dyDescent="0.25">
@@ -30056,7 +30694,7 @@
         <v>4.5709296953772997E-4</v>
       </c>
       <c r="N329" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="330" spans="1:14" x14ac:dyDescent="0.25">
@@ -30100,7 +30738,7 @@
         <v>4.6029702806127002E-4</v>
       </c>
       <c r="N330" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="331" spans="1:14" x14ac:dyDescent="0.25">
@@ -30144,7 +30782,7 @@
         <v>1.4969599332058201E-3</v>
       </c>
       <c r="N331" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="332" spans="1:14" x14ac:dyDescent="0.25">
@@ -30188,7 +30826,7 @@
         <v>7.14012207590379E-4</v>
       </c>
       <c r="N332" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="333" spans="1:14" x14ac:dyDescent="0.25">
@@ -30232,7 +30870,7 @@
         <v>6.2496287775666505E-4</v>
       </c>
       <c r="N333" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="334" spans="1:14" x14ac:dyDescent="0.25">
@@ -30276,7 +30914,7 @@
         <v>7.4107911676512303E-4</v>
       </c>
       <c r="N334" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="335" spans="1:14" x14ac:dyDescent="0.25">
@@ -30320,7 +30958,7 @@
         <v>4.7773809882939498E-4</v>
       </c>
       <c r="N335" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="336" spans="1:14" x14ac:dyDescent="0.25">
@@ -30364,7 +31002,7 @@
         <v>6.6127477227082303E-4</v>
       </c>
       <c r="N336" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="337" spans="1:14" x14ac:dyDescent="0.25">
@@ -30408,7 +31046,7 @@
         <v>6.7995620538786297E-4</v>
       </c>
       <c r="N337" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="338" spans="1:14" x14ac:dyDescent="0.25">
@@ -30452,7 +31090,7 @@
         <v>5.3280985510442897E-4</v>
       </c>
       <c r="N338" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="339" spans="1:14" x14ac:dyDescent="0.25">
@@ -30496,7 +31134,7 @@
         <v>4.2035718136877498E-4</v>
       </c>
       <c r="N339" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="340" spans="1:14" x14ac:dyDescent="0.25">
@@ -30540,7 +31178,7 @@
         <v>4.48693987846707E-4</v>
       </c>
       <c r="N340" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="341" spans="1:14" x14ac:dyDescent="0.25">
@@ -30584,12 +31222,12 @@
         <v>1.56035443198678E-3</v>
       </c>
       <c r="N341" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="343" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="344" spans="1:14" x14ac:dyDescent="0.25">
@@ -30599,7 +31237,7 @@
     </row>
     <row r="345" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A345" s="10" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B345" t="s">
         <v>1</v>
@@ -30643,7 +31281,7 @@
     </row>
     <row r="347" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="348" spans="1:14" x14ac:dyDescent="0.25">
@@ -30736,7 +31374,7 @@
         <v>6.0499999999999996E-4</v>
       </c>
       <c r="N350" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="351" spans="1:14" x14ac:dyDescent="0.25">
@@ -30780,7 +31418,7 @@
         <v>6.0999999999999997E-4</v>
       </c>
       <c r="N351" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="352" spans="1:14" x14ac:dyDescent="0.25">
@@ -30824,7 +31462,7 @@
         <v>6.78E-4</v>
       </c>
       <c r="N352" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="353" spans="1:14" x14ac:dyDescent="0.25">
@@ -30868,7 +31506,7 @@
         <v>4.1800000000000002E-4</v>
       </c>
       <c r="N353" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="354" spans="1:14" x14ac:dyDescent="0.25">
@@ -30912,7 +31550,7 @@
         <v>6.9700000000000003E-4</v>
       </c>
       <c r="N354" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="355" spans="1:14" x14ac:dyDescent="0.25">
@@ -30956,7 +31594,7 @@
         <v>6.7900000000000002E-4</v>
       </c>
       <c r="N355" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="356" spans="1:14" x14ac:dyDescent="0.25">
@@ -31000,7 +31638,7 @@
         <v>5.6099999999999998E-4</v>
       </c>
       <c r="N356" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="357" spans="1:14" x14ac:dyDescent="0.25">
@@ -31044,7 +31682,7 @@
         <v>5.6999999999999998E-4</v>
       </c>
       <c r="N357" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="358" spans="1:14" x14ac:dyDescent="0.25">
@@ -31088,7 +31726,7 @@
         <v>4.9299999999999995E-4</v>
       </c>
       <c r="N358" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="359" spans="1:14" x14ac:dyDescent="0.25">
@@ -31132,7 +31770,7 @@
         <v>1.7490419999999999E-3</v>
       </c>
       <c r="N359" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="360" spans="1:14" x14ac:dyDescent="0.25">
@@ -31176,7 +31814,7 @@
         <v>6.9700000000000003E-4</v>
       </c>
       <c r="N360" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="361" spans="1:14" x14ac:dyDescent="0.25">
@@ -31220,7 +31858,7 @@
         <v>6.4400000000000004E-4</v>
       </c>
       <c r="N361" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="362" spans="1:14" x14ac:dyDescent="0.25">
@@ -31264,7 +31902,7 @@
         <v>6.4999999999999997E-4</v>
       </c>
       <c r="N362" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="363" spans="1:14" x14ac:dyDescent="0.25">
@@ -31308,7 +31946,7 @@
         <v>4.0999999999999999E-4</v>
       </c>
       <c r="N363" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="364" spans="1:14" x14ac:dyDescent="0.25">
@@ -31352,7 +31990,7 @@
         <v>7.1699999999999997E-4</v>
       </c>
       <c r="N364" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="365" spans="1:14" x14ac:dyDescent="0.25">
@@ -31396,7 +32034,7 @@
         <v>6.3500000000000004E-4</v>
       </c>
       <c r="N365" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="366" spans="1:14" x14ac:dyDescent="0.25">
@@ -31440,7 +32078,7 @@
         <v>5.6400000000000005E-4</v>
       </c>
       <c r="N366" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="367" spans="1:14" x14ac:dyDescent="0.25">
@@ -31484,7 +32122,7 @@
         <v>4.4999999999999999E-4</v>
       </c>
       <c r="N367" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="368" spans="1:14" x14ac:dyDescent="0.25">
@@ -31528,7 +32166,7 @@
         <v>4.55E-4</v>
       </c>
       <c r="N368" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="369" spans="1:14" x14ac:dyDescent="0.25">
@@ -31572,7 +32210,7 @@
         <v>1.6586109999999999E-3</v>
       </c>
       <c r="N369" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="370" spans="1:14" x14ac:dyDescent="0.25">
@@ -31616,7 +32254,7 @@
         <v>1.464531E-3</v>
       </c>
       <c r="N370" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="371" spans="1:14" x14ac:dyDescent="0.25">
@@ -31660,7 +32298,7 @@
         <v>9.3300000000000002E-4</v>
       </c>
       <c r="N371" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="372" spans="1:14" x14ac:dyDescent="0.25">
@@ -31704,7 +32342,7 @@
         <v>1.1759240000000001E-3</v>
       </c>
       <c r="N372" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="373" spans="1:14" x14ac:dyDescent="0.25">
@@ -31748,7 +32386,7 @@
         <v>1.1150369999999999E-3</v>
       </c>
       <c r="N373" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="374" spans="1:14" x14ac:dyDescent="0.25">
@@ -31792,7 +32430,7 @@
         <v>1.1847380000000001E-3</v>
       </c>
       <c r="N374" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="375" spans="1:14" x14ac:dyDescent="0.25">
@@ -31836,7 +32474,7 @@
         <v>1.491645E-3</v>
       </c>
       <c r="N375" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="376" spans="1:14" x14ac:dyDescent="0.25">
@@ -31880,7 +32518,7 @@
         <v>1.109411E-3</v>
       </c>
       <c r="N376" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="377" spans="1:14" x14ac:dyDescent="0.25">
@@ -31924,7 +32562,7 @@
         <v>1.1908999999999999E-3</v>
       </c>
       <c r="N377" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="378" spans="1:14" x14ac:dyDescent="0.25">
@@ -31968,7 +32606,7 @@
         <v>8.7900000000000001E-4</v>
       </c>
       <c r="N378" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="379" spans="1:14" x14ac:dyDescent="0.25">
@@ -32012,7 +32650,7 @@
         <v>2.109442E-3</v>
       </c>
       <c r="N379" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="380" spans="1:14" x14ac:dyDescent="0.25">
@@ -32056,7 +32694,7 @@
         <v>1.660438E-3</v>
       </c>
       <c r="N380" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="381" spans="1:14" x14ac:dyDescent="0.25">
@@ -32100,7 +32738,7 @@
         <v>1.1754599999999999E-3</v>
       </c>
       <c r="N381" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="382" spans="1:14" x14ac:dyDescent="0.25">
@@ -32144,7 +32782,7 @@
         <v>1.105132E-3</v>
       </c>
       <c r="N382" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="383" spans="1:14" x14ac:dyDescent="0.25">
@@ -32188,7 +32826,7 @@
         <v>9.6900000000000003E-4</v>
       </c>
       <c r="N383" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="384" spans="1:14" x14ac:dyDescent="0.25">
@@ -32232,7 +32870,7 @@
         <v>1.1205900000000001E-3</v>
       </c>
       <c r="N384" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="385" spans="1:14" x14ac:dyDescent="0.25">
@@ -32276,7 +32914,7 @@
         <v>1.330293E-3</v>
       </c>
       <c r="N385" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="386" spans="1:14" x14ac:dyDescent="0.25">
@@ -32320,7 +32958,7 @@
         <v>9.2900000000000003E-4</v>
       </c>
       <c r="N386" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="387" spans="1:14" x14ac:dyDescent="0.25">
@@ -32364,7 +33002,7 @@
         <v>1.098192E-3</v>
       </c>
       <c r="N387" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="388" spans="1:14" x14ac:dyDescent="0.25">
@@ -32408,7 +33046,7 @@
         <v>7.1299999999999998E-4</v>
       </c>
       <c r="N388" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="389" spans="1:14" x14ac:dyDescent="0.25">
@@ -32452,17 +33090,17 @@
         <v>2.4017560000000001E-3</v>
       </c>
       <c r="N389" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="391" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="392" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="393" spans="1:14" x14ac:dyDescent="0.25">
@@ -32550,7 +33188,7 @@
         <v>1.4214933942652099E-3</v>
       </c>
       <c r="N394" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="395" spans="1:14" x14ac:dyDescent="0.25">
@@ -32594,7 +33232,7 @@
         <v>7.8007502839658996E-4</v>
       </c>
       <c r="N395" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="396" spans="1:14" x14ac:dyDescent="0.25">
@@ -32638,7 +33276,7 @@
         <v>8.1921834490522496E-4</v>
       </c>
       <c r="N396" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="397" spans="1:14" x14ac:dyDescent="0.25">
@@ -32682,7 +33320,7 @@
         <v>8.8618055507540901E-4</v>
       </c>
       <c r="N397" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="398" spans="1:14" x14ac:dyDescent="0.25">
@@ -32726,7 +33364,7 @@
         <v>3.1649672226594801E-3</v>
       </c>
       <c r="N398" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="399" spans="1:14" x14ac:dyDescent="0.25">
@@ -32770,7 +33408,7 @@
         <v>8.4129954742873103E-4</v>
       </c>
       <c r="N399" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="400" spans="1:14" x14ac:dyDescent="0.25">
@@ -32814,7 +33452,7 @@
         <v>9.7504133791823002E-4</v>
       </c>
       <c r="N400" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="401" spans="1:14" x14ac:dyDescent="0.25">
@@ -32858,7 +33496,7 @@
         <v>9.0214389172751301E-4</v>
       </c>
       <c r="N401" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="402" spans="1:14" x14ac:dyDescent="0.25">
@@ -32902,7 +33540,7 @@
         <v>6.0671527847750795E-4</v>
       </c>
       <c r="N402" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="403" spans="1:14" x14ac:dyDescent="0.25">
@@ -32946,7 +33584,7 @@
         <v>1.3318832274917499E-3</v>
       </c>
       <c r="N403" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="404" spans="1:14" x14ac:dyDescent="0.25">
@@ -32990,7 +33628,7 @@
         <v>6.9699665276168701E-4</v>
       </c>
       <c r="N404" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="405" spans="1:14" x14ac:dyDescent="0.25">
@@ -33034,7 +33672,7 @@
         <v>6.4394177864860304E-4</v>
       </c>
       <c r="N405" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="406" spans="1:14" x14ac:dyDescent="0.25">
@@ -33078,7 +33716,7 @@
         <v>6.5049034753186005E-4</v>
       </c>
       <c r="N406" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="407" spans="1:14" x14ac:dyDescent="0.25">
@@ -33122,7 +33760,7 @@
         <v>4.1036921869121298E-4</v>
       </c>
       <c r="N407" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="408" spans="1:14" x14ac:dyDescent="0.25">
@@ -33166,7 +33804,7 @@
         <v>7.1731118913507695E-4</v>
       </c>
       <c r="N408" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="409" spans="1:14" x14ac:dyDescent="0.25">
@@ -33210,7 +33848,7 @@
         <v>6.3511120392451199E-4</v>
       </c>
       <c r="N409" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="410" spans="1:14" x14ac:dyDescent="0.25">
@@ -33254,7 +33892,7 @@
         <v>5.6423125685661204E-4</v>
       </c>
       <c r="N410" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="411" spans="1:14" x14ac:dyDescent="0.25">
@@ -33298,7 +33936,7 @@
         <v>4.4960906321775499E-4</v>
       </c>
       <c r="N411" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="412" spans="1:14" x14ac:dyDescent="0.25">
@@ -33342,7 +33980,7 @@
         <v>4.5546983393322598E-4</v>
       </c>
       <c r="N412" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="413" spans="1:14" x14ac:dyDescent="0.25">
@@ -33386,7 +34024,7 @@
         <v>1.6586107196982999E-3</v>
       </c>
       <c r="N413" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="414" spans="1:14" x14ac:dyDescent="0.25">
@@ -33430,7 +34068,7 @@
         <v>6.7100445754216301E-4</v>
       </c>
       <c r="N414" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="415" spans="1:14" x14ac:dyDescent="0.25">
@@ -33474,7 +34112,7 @@
         <v>4.4743449246496998E-4</v>
       </c>
       <c r="N415" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="416" spans="1:14" x14ac:dyDescent="0.25">
@@ -33518,7 +34156,7 @@
         <v>1.0333131335313001E-3</v>
       </c>
       <c r="N416" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="417" spans="1:14" x14ac:dyDescent="0.25">
@@ -33562,7 +34200,7 @@
         <v>3.6468784218119401E-3</v>
       </c>
       <c r="N417" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="418" spans="1:14" x14ac:dyDescent="0.25">
@@ -33606,7 +34244,7 @@
         <v>1.67387295857262E-3</v>
       </c>
       <c r="N418" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="419" spans="1:14" x14ac:dyDescent="0.25">
@@ -33650,7 +34288,7 @@
         <v>5.5281413857156199E-4</v>
       </c>
       <c r="N419" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="420" spans="1:14" x14ac:dyDescent="0.25">
@@ -33694,7 +34332,7 @@
         <v>3.5573150603526997E-4</v>
       </c>
       <c r="N420" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="421" spans="1:14" x14ac:dyDescent="0.25">
@@ -33738,7 +34376,7 @@
         <v>9.4456016041471005E-4</v>
       </c>
       <c r="N421" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="422" spans="1:14" x14ac:dyDescent="0.25">
@@ -33782,7 +34420,7 @@
         <v>7.60310277559959E-4</v>
       </c>
       <c r="N422" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="423" spans="1:14" x14ac:dyDescent="0.25">
@@ -33826,7 +34464,7 @@
         <v>8.78484329656282E-4</v>
       </c>
       <c r="N423" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="424" spans="1:14" x14ac:dyDescent="0.25">
@@ -33870,7 +34508,7 @@
         <v>1.0956699628557501E-3</v>
       </c>
       <c r="N424" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="425" spans="1:14" x14ac:dyDescent="0.25">
@@ -33914,7 +34552,7 @@
         <v>1.04783090942962E-3</v>
       </c>
       <c r="N425" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="426" spans="1:14" x14ac:dyDescent="0.25">
@@ -33958,7 +34596,7 @@
         <v>1.16002763102325E-3</v>
       </c>
       <c r="N426" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="427" spans="1:14" x14ac:dyDescent="0.25">
@@ -34002,7 +34640,7 @@
         <v>1.10586197536037E-3</v>
       </c>
       <c r="N427" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="428" spans="1:14" x14ac:dyDescent="0.25">
@@ -34046,7 +34684,7 @@
         <v>4.9932163232752601E-4</v>
       </c>
       <c r="N428" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="429" spans="1:14" x14ac:dyDescent="0.25">
@@ -34090,7 +34728,7 @@
         <v>8.3550241696693603E-4</v>
       </c>
       <c r="N429" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="430" spans="1:14" x14ac:dyDescent="0.25">
@@ -34134,7 +34772,7 @@
         <v>1.51244575507738E-3</v>
       </c>
       <c r="N430" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="431" spans="1:14" x14ac:dyDescent="0.25">
@@ -34178,7 +34816,7 @@
         <v>7.2042579816987201E-4</v>
       </c>
       <c r="N431" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="432" spans="1:14" x14ac:dyDescent="0.25">
@@ -34222,7 +34860,7 @@
         <v>4.0377530158784502E-4</v>
       </c>
       <c r="N432" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="433" spans="1:14" x14ac:dyDescent="0.25">
@@ -34266,7 +34904,7 @@
         <v>1.69483422753706E-3</v>
       </c>
       <c r="N433" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="435" spans="1:14" x14ac:dyDescent="0.25">
@@ -34276,7 +34914,7 @@
     </row>
     <row r="436" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="437" spans="1:14" x14ac:dyDescent="0.25">
@@ -34369,7 +35007,7 @@
         <v>6.9700000000000003E-4</v>
       </c>
       <c r="N439" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="440" spans="1:14" x14ac:dyDescent="0.25">
@@ -34413,7 +35051,7 @@
         <v>6.4400000000000004E-4</v>
       </c>
       <c r="N440" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="441" spans="1:14" x14ac:dyDescent="0.25">
@@ -34457,7 +35095,7 @@
         <v>6.4999999999999997E-4</v>
       </c>
       <c r="N441" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="442" spans="1:14" x14ac:dyDescent="0.25">
@@ -34501,7 +35139,7 @@
         <v>4.0999999999999999E-4</v>
       </c>
       <c r="N442" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="443" spans="1:14" x14ac:dyDescent="0.25">
@@ -34545,7 +35183,7 @@
         <v>7.1699999999999997E-4</v>
       </c>
       <c r="N443" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="444" spans="1:14" x14ac:dyDescent="0.25">
@@ -34589,7 +35227,7 @@
         <v>6.3500000000000004E-4</v>
       </c>
       <c r="N444" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="445" spans="1:14" x14ac:dyDescent="0.25">
@@ -34633,7 +35271,7 @@
         <v>5.6400000000000005E-4</v>
       </c>
       <c r="N445" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="446" spans="1:14" x14ac:dyDescent="0.25">
@@ -34677,7 +35315,7 @@
         <v>4.4999999999999999E-4</v>
       </c>
       <c r="N446" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="447" spans="1:14" x14ac:dyDescent="0.25">
@@ -34721,7 +35359,7 @@
         <v>4.55E-4</v>
       </c>
       <c r="N447" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="448" spans="1:14" x14ac:dyDescent="0.25">
@@ -34765,12 +35403,12 @@
         <v>1.6586109999999999E-3</v>
       </c>
       <c r="N448" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="449" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="450" spans="1:14" x14ac:dyDescent="0.25">
@@ -34858,7 +35496,7 @@
         <v>6.9699665276168701E-4</v>
       </c>
       <c r="N451" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="452" spans="1:14" x14ac:dyDescent="0.25">
@@ -34902,7 +35540,7 @@
         <v>6.4394177864860304E-4</v>
       </c>
       <c r="N452" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="453" spans="1:14" x14ac:dyDescent="0.25">
@@ -34946,7 +35584,7 @@
         <v>6.5049034753186005E-4</v>
       </c>
       <c r="N453" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="454" spans="1:14" x14ac:dyDescent="0.25">
@@ -34990,7 +35628,7 @@
         <v>4.1036921869121298E-4</v>
       </c>
       <c r="N454" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="455" spans="1:14" x14ac:dyDescent="0.25">
@@ -35034,7 +35672,7 @@
         <v>7.1731118913507695E-4</v>
       </c>
       <c r="N455" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="456" spans="1:14" x14ac:dyDescent="0.25">
@@ -35078,7 +35716,7 @@
         <v>6.3511120392451199E-4</v>
       </c>
       <c r="N456" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="457" spans="1:14" x14ac:dyDescent="0.25">
@@ -35122,7 +35760,7 @@
         <v>5.6423125685661204E-4</v>
       </c>
       <c r="N457" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="458" spans="1:14" x14ac:dyDescent="0.25">
@@ -35166,7 +35804,7 @@
         <v>4.4960906321775499E-4</v>
       </c>
       <c r="N458" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="459" spans="1:14" x14ac:dyDescent="0.25">
@@ -35210,7 +35848,7 @@
         <v>4.5546983393322598E-4</v>
       </c>
       <c r="N459" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="460" spans="1:14" x14ac:dyDescent="0.25">
@@ -35254,7 +35892,7 @@
         <v>1.6586107196982999E-3</v>
       </c>
       <c r="N460" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="461" spans="1:14" x14ac:dyDescent="0.25">
@@ -35298,7 +35936,7 @@
         <v>9.2627294804927202E-4</v>
       </c>
       <c r="N461" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="462" spans="1:14" x14ac:dyDescent="0.25">
@@ -35342,7 +35980,7 @@
         <v>1.34124063276507E-3</v>
       </c>
       <c r="N462" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="463" spans="1:14" x14ac:dyDescent="0.25">
@@ -35386,7 +36024,7 @@
         <v>8.1004476475890204E-4</v>
       </c>
       <c r="N463" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="464" spans="1:14" x14ac:dyDescent="0.25">
@@ -35430,7 +36068,7 @@
         <v>4.8055692691923899E-4</v>
       </c>
       <c r="N464" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="465" spans="1:14" x14ac:dyDescent="0.25">
@@ -35474,7 +36112,7 @@
         <v>9.4075067920304696E-4</v>
       </c>
       <c r="N465" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="466" spans="1:14" x14ac:dyDescent="0.25">
@@ -35518,7 +36156,7 @@
         <v>1.2165539015732199E-3</v>
       </c>
       <c r="N466" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="467" spans="1:14" x14ac:dyDescent="0.25">
@@ -35562,7 +36200,7 @@
         <v>7.4567677557752995E-4</v>
       </c>
       <c r="N467" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="468" spans="1:14" x14ac:dyDescent="0.25">
@@ -35606,7 +36244,7 @@
         <v>9.8197277663422504E-4</v>
       </c>
       <c r="N468" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="469" spans="1:14" x14ac:dyDescent="0.25">
@@ -35650,7 +36288,7 @@
         <v>7.1778102845255196E-4</v>
       </c>
       <c r="N469" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="470" spans="1:14" x14ac:dyDescent="0.25">
@@ -35694,7 +36332,7 @@
         <v>7.5308520083725396E-4</v>
       </c>
       <c r="N470" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="471" spans="1:14" x14ac:dyDescent="0.25">
@@ -35738,7 +36376,7 @@
         <v>7.5385473912557605E-4</v>
       </c>
       <c r="N471" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="472" spans="1:14" x14ac:dyDescent="0.25">
@@ -35782,7 +36420,7 @@
         <v>6.7149953676592499E-4</v>
       </c>
       <c r="N472" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="473" spans="1:14" x14ac:dyDescent="0.25">
@@ -35826,7 +36464,7 @@
         <v>8.1252584148756401E-4</v>
       </c>
       <c r="N473" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="474" spans="1:14" x14ac:dyDescent="0.25">
@@ -35870,7 +36508,7 @@
         <v>1.3464302097785301E-3</v>
       </c>
       <c r="N474" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="475" spans="1:14" x14ac:dyDescent="0.25">
@@ -35914,7 +36552,7 @@
         <v>1.1700118359964601E-3</v>
       </c>
       <c r="N475" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="476" spans="1:14" x14ac:dyDescent="0.25">
@@ -35958,7 +36596,7 @@
         <v>7.9455503264324202E-4</v>
       </c>
       <c r="N476" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="477" spans="1:14" x14ac:dyDescent="0.25">
@@ -36002,7 +36640,7 @@
         <v>4.3462435637801802E-3</v>
       </c>
       <c r="N477" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="478" spans="1:14" x14ac:dyDescent="0.25">
@@ -36046,7 +36684,7 @@
         <v>7.8961608269623098E-4</v>
       </c>
       <c r="N478" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="479" spans="1:14" x14ac:dyDescent="0.25">
@@ -36090,7 +36728,7 @@
         <v>6.5417694292080396E-4</v>
       </c>
       <c r="N479" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="480" spans="1:14" x14ac:dyDescent="0.25">
@@ -36134,7 +36772,7 @@
         <v>6.6825248290295204E-4</v>
       </c>
       <c r="N480" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="481" spans="1:14" x14ac:dyDescent="0.25">
@@ -36178,7 +36816,7 @@
         <v>5.9468167585683296E-4</v>
       </c>
       <c r="N481" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="482" spans="1:14" x14ac:dyDescent="0.25">
@@ -36222,7 +36860,7 @@
         <v>1.0253207728738701E-3</v>
       </c>
       <c r="N482" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="483" spans="1:14" x14ac:dyDescent="0.25">
@@ -36266,7 +36904,7 @@
         <v>1.11361054797086E-3</v>
       </c>
       <c r="N483" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="484" spans="1:14" x14ac:dyDescent="0.25">
@@ -36310,7 +36948,7 @@
         <v>6.27122705440334E-4</v>
       </c>
       <c r="N484" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="485" spans="1:14" x14ac:dyDescent="0.25">
@@ -36354,7 +36992,7 @@
         <v>5.3613448792361998E-4</v>
       </c>
       <c r="N485" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="486" spans="1:14" x14ac:dyDescent="0.25">
@@ -36398,7 +37036,7 @@
         <v>1.18171355516121E-3</v>
       </c>
       <c r="N486" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="487" spans="1:14" x14ac:dyDescent="0.25">
@@ -36442,7 +37080,7 @@
         <v>2.1769482213861002E-3</v>
       </c>
       <c r="N487" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="488" spans="1:14" x14ac:dyDescent="0.25">
@@ -36486,7 +37124,7 @@
         <v>4.6552537339757599E-4</v>
       </c>
       <c r="N488" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="489" spans="1:14" x14ac:dyDescent="0.25">
@@ -36530,7 +37168,7 @@
         <v>1.29471087053292E-3</v>
       </c>
       <c r="N489" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="490" spans="1:14" x14ac:dyDescent="0.25">
@@ -36574,12 +37212,12 @@
         <v>6.5540439455275999E-4</v>
       </c>
       <c r="N490" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="492" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A492" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="493" spans="1:14" x14ac:dyDescent="0.25">
@@ -36667,7 +37305,7 @@
         <v>2.4340478106633901E-3</v>
       </c>
       <c r="N494" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="495" spans="1:14" x14ac:dyDescent="0.25">
@@ -36711,7 +37349,7 @@
         <v>2.64872922930833E-3</v>
       </c>
       <c r="N495" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="496" spans="1:14" x14ac:dyDescent="0.25">
@@ -36755,7 +37393,7 @@
         <v>3.0802679256658298E-3</v>
       </c>
       <c r="N496" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="497" spans="1:14" x14ac:dyDescent="0.25">
@@ -36799,7 +37437,7 @@
         <v>1.3016621348601899E-3</v>
       </c>
       <c r="N497" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="498" spans="1:14" x14ac:dyDescent="0.25">
@@ -36843,7 +37481,7 @@
         <v>3.3088429780205801E-3</v>
       </c>
       <c r="N498" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="499" spans="1:14" x14ac:dyDescent="0.25">
@@ -36887,7 +37525,7 @@
         <v>3.11073426670895E-3</v>
       </c>
       <c r="N499" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="500" spans="1:14" x14ac:dyDescent="0.25">
@@ -36931,7 +37569,7 @@
         <v>4.77959283701844E-4</v>
       </c>
       <c r="N500" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="501" spans="1:14" x14ac:dyDescent="0.25">
@@ -36975,7 +37613,7 @@
         <v>1.1310681591526399E-3</v>
       </c>
       <c r="N501" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="502" spans="1:14" x14ac:dyDescent="0.25">
@@ -37019,7 +37657,7 @@
         <v>3.9209210009144498E-4</v>
       </c>
       <c r="N502" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="503" spans="1:14" x14ac:dyDescent="0.25">
@@ -37063,12 +37701,12 @@
         <v>3.3434585555260201E-4</v>
       </c>
       <c r="N503" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="504" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A504" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="505" spans="1:14" x14ac:dyDescent="0.25">
@@ -37156,7 +37794,7 @@
         <v>1.0956699628557501E-3</v>
       </c>
       <c r="N506" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="507" spans="1:14" x14ac:dyDescent="0.25">
@@ -37200,7 +37838,7 @@
         <v>1.04783090942962E-3</v>
       </c>
       <c r="N507" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="508" spans="1:14" x14ac:dyDescent="0.25">
@@ -37244,7 +37882,7 @@
         <v>1.16002763102325E-3</v>
       </c>
       <c r="N508" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="509" spans="1:14" x14ac:dyDescent="0.25">
@@ -37288,7 +37926,7 @@
         <v>1.10586197536037E-3</v>
       </c>
       <c r="N509" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="510" spans="1:14" x14ac:dyDescent="0.25">
@@ -37332,7 +37970,7 @@
         <v>4.9932163232752601E-4</v>
       </c>
       <c r="N510" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="511" spans="1:14" x14ac:dyDescent="0.25">
@@ -37376,7 +38014,7 @@
         <v>8.3550241696693603E-4</v>
       </c>
       <c r="N511" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="512" spans="1:14" x14ac:dyDescent="0.25">
@@ -37420,7 +38058,7 @@
         <v>1.51244575507738E-3</v>
       </c>
       <c r="N512" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="513" spans="1:14" x14ac:dyDescent="0.25">
@@ -37464,7 +38102,7 @@
         <v>7.2042579816987201E-4</v>
       </c>
       <c r="N513" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="514" spans="1:14" x14ac:dyDescent="0.25">
@@ -37508,7 +38146,7 @@
         <v>4.0377530158784502E-4</v>
       </c>
       <c r="N514" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="515" spans="1:14" x14ac:dyDescent="0.25">
@@ -37552,12 +38190,12 @@
         <v>1.69483422753706E-3</v>
       </c>
       <c r="N515" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="518" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A518" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="519" spans="1:14" x14ac:dyDescent="0.25">
@@ -37645,7 +38283,7 @@
         <v>6.9699665276168701E-4</v>
       </c>
       <c r="N520" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="521" spans="1:14" x14ac:dyDescent="0.25">
@@ -37689,7 +38327,7 @@
         <v>6.4394177864860304E-4</v>
       </c>
       <c r="N521" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="522" spans="1:14" x14ac:dyDescent="0.25">
@@ -37733,7 +38371,7 @@
         <v>6.5049034753186005E-4</v>
       </c>
       <c r="N522" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="523" spans="1:14" x14ac:dyDescent="0.25">
@@ -37777,7 +38415,7 @@
         <v>4.1036921869121298E-4</v>
       </c>
       <c r="N523" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="524" spans="1:14" x14ac:dyDescent="0.25">
@@ -37821,7 +38459,7 @@
         <v>7.1731118913507695E-4</v>
       </c>
       <c r="N524" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="525" spans="1:14" x14ac:dyDescent="0.25">
@@ -37865,7 +38503,7 @@
         <v>6.3511120392451199E-4</v>
       </c>
       <c r="N525" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="526" spans="1:14" x14ac:dyDescent="0.25">
@@ -37909,7 +38547,7 @@
         <v>5.6423125685661204E-4</v>
       </c>
       <c r="N526" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="527" spans="1:14" x14ac:dyDescent="0.25">
@@ -37953,7 +38591,7 @@
         <v>4.4960906321775499E-4</v>
       </c>
       <c r="N527" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="528" spans="1:14" x14ac:dyDescent="0.25">
@@ -37997,7 +38635,7 @@
         <v>4.5546983393322598E-4</v>
       </c>
       <c r="N528" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="529" spans="1:14" x14ac:dyDescent="0.25">
@@ -38041,7 +38679,496 @@
         <v>1.6586107196982999E-3</v>
       </c>
       <c r="N529" t="s">
-        <v>108</v>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="531" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A531" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="532" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A532" t="s">
+        <v>0</v>
+      </c>
+      <c r="B532" t="s">
+        <v>1</v>
+      </c>
+      <c r="C532" t="s">
+        <v>10</v>
+      </c>
+      <c r="D532" t="s">
+        <v>2</v>
+      </c>
+      <c r="E532" t="s">
+        <v>3</v>
+      </c>
+      <c r="F532" t="s">
+        <v>4</v>
+      </c>
+      <c r="G532" t="s">
+        <v>5</v>
+      </c>
+      <c r="H532" t="s">
+        <v>6</v>
+      </c>
+      <c r="I532" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J532" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K532" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L532" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M532" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N532" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="533" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A533">
+        <v>4</v>
+      </c>
+      <c r="B533">
+        <v>1</v>
+      </c>
+      <c r="C533">
+        <v>1</v>
+      </c>
+      <c r="D533">
+        <v>6075</v>
+      </c>
+      <c r="E533">
+        <v>0.3</v>
+      </c>
+      <c r="F533">
+        <v>1.29755464590423</v>
+      </c>
+      <c r="G533">
+        <v>12.2043725609362</v>
+      </c>
+      <c r="H533">
+        <v>0.72805865529887503</v>
+      </c>
+      <c r="I533" s="3">
+        <v>1.8000000000001799</v>
+      </c>
+      <c r="J533" s="3">
+        <v>0.19999999999981799</v>
+      </c>
+      <c r="K533" s="2">
+        <v>0.13561646640300701</v>
+      </c>
+      <c r="L533" s="2">
+        <v>2.5768703706697701E-2</v>
+      </c>
+      <c r="M533" s="2">
+        <v>6.9699665276168701E-4</v>
+      </c>
+      <c r="N533" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="534" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A534">
+        <v>4</v>
+      </c>
+      <c r="B534">
+        <v>1</v>
+      </c>
+      <c r="C534">
+        <v>2</v>
+      </c>
+      <c r="D534">
+        <v>6011</v>
+      </c>
+      <c r="E534">
+        <v>0.3</v>
+      </c>
+      <c r="F534">
+        <v>-0.343882790201334</v>
+      </c>
+      <c r="G534">
+        <v>12.7010204248242</v>
+      </c>
+      <c r="H534">
+        <v>0.75886688763089205</v>
+      </c>
+      <c r="I534" s="3">
+        <v>2.4200000000000701</v>
+      </c>
+      <c r="J534" s="3">
+        <v>0.130000000000109</v>
+      </c>
+      <c r="K534" s="2">
+        <v>0.13663718104362399</v>
+      </c>
+      <c r="L534" s="2">
+        <v>2.2737624734579399E-2</v>
+      </c>
+      <c r="M534" s="2">
+        <v>6.4394177864860304E-4</v>
+      </c>
+      <c r="N534" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="535" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A535">
+        <v>4</v>
+      </c>
+      <c r="B535">
+        <v>1</v>
+      </c>
+      <c r="C535">
+        <v>3</v>
+      </c>
+      <c r="D535">
+        <v>6063</v>
+      </c>
+      <c r="E535">
+        <v>0.3</v>
+      </c>
+      <c r="F535">
+        <v>0.17203696304432101</v>
+      </c>
+      <c r="G535">
+        <v>11.2291498132152</v>
+      </c>
+      <c r="H535">
+        <v>0.74460048783559796</v>
+      </c>
+      <c r="I535" s="3">
+        <v>2.1799999999998301</v>
+      </c>
+      <c r="J535" s="3">
+        <v>0.19000000000005399</v>
+      </c>
+      <c r="K535" s="2">
+        <v>0.13432812690734799</v>
+      </c>
+      <c r="L535" s="2">
+        <v>2.38291010621338E-2</v>
+      </c>
+      <c r="M535" s="2">
+        <v>6.5049034753186005E-4</v>
+      </c>
+      <c r="N535" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="536" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A536">
+        <v>4</v>
+      </c>
+      <c r="B536">
+        <v>1</v>
+      </c>
+      <c r="C536">
+        <v>4</v>
+      </c>
+      <c r="D536">
+        <v>6100</v>
+      </c>
+      <c r="E536">
+        <v>0.3</v>
+      </c>
+      <c r="F536">
+        <v>0.160329274482086</v>
+      </c>
+      <c r="G536">
+        <v>10.866467402919501</v>
+      </c>
+      <c r="H536">
+        <v>0.75683993250091797</v>
+      </c>
+      <c r="I536" s="3">
+        <v>2.2100000000000302</v>
+      </c>
+      <c r="J536" s="3">
+        <v>0.139999999999872</v>
+      </c>
+      <c r="K536" s="2">
+        <v>0.13201585412025399</v>
+      </c>
+      <c r="L536" s="2">
+        <v>2.3039362013978801E-2</v>
+      </c>
+      <c r="M536" s="2">
+        <v>4.1036921869121298E-4</v>
+      </c>
+      <c r="N536" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="537" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A537">
+        <v>4</v>
+      </c>
+      <c r="B537">
+        <v>1</v>
+      </c>
+      <c r="C537">
+        <v>5</v>
+      </c>
+      <c r="D537">
+        <v>6049</v>
+      </c>
+      <c r="E537">
+        <v>0.3</v>
+      </c>
+      <c r="F537">
+        <v>1.32267269526043</v>
+      </c>
+      <c r="G537">
+        <v>10.4892497741647</v>
+      </c>
+      <c r="H537">
+        <v>0.740465664199631</v>
+      </c>
+      <c r="I537" s="3">
+        <v>2.4200000000000701</v>
+      </c>
+      <c r="J537" s="3">
+        <v>0.19000000000005399</v>
+      </c>
+      <c r="K537" s="2">
+        <v>0.13128890097141199</v>
+      </c>
+      <c r="L537" s="2">
+        <v>2.2335985831344499E-2</v>
+      </c>
+      <c r="M537" s="2">
+        <v>7.1731118913507695E-4</v>
+      </c>
+      <c r="N537" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="538" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A538">
+        <v>4</v>
+      </c>
+      <c r="B538">
+        <v>1</v>
+      </c>
+      <c r="C538">
+        <v>6</v>
+      </c>
+      <c r="D538">
+        <v>6058</v>
+      </c>
+      <c r="E538">
+        <v>0.3</v>
+      </c>
+      <c r="F538">
+        <v>0.35201328883962302</v>
+      </c>
+      <c r="G538">
+        <v>9.1027997920427897</v>
+      </c>
+      <c r="H538">
+        <v>0.73222448573226895</v>
+      </c>
+      <c r="I538" s="3">
+        <v>2.1100000000001198</v>
+      </c>
+      <c r="J538" s="3">
+        <v>0.17999999999983601</v>
+      </c>
+      <c r="K538" s="2">
+        <v>0.131095141172409</v>
+      </c>
+      <c r="L538" s="2">
+        <v>2.4250106782755299E-2</v>
+      </c>
+      <c r="M538" s="2">
+        <v>6.3511120392451199E-4</v>
+      </c>
+      <c r="N538" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="539" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A539">
+        <v>4</v>
+      </c>
+      <c r="B539">
+        <v>1</v>
+      </c>
+      <c r="C539">
+        <v>7</v>
+      </c>
+      <c r="D539">
+        <v>6077</v>
+      </c>
+      <c r="E539">
+        <v>0.3</v>
+      </c>
+      <c r="F539">
+        <v>-0.49354654740683601</v>
+      </c>
+      <c r="G539">
+        <v>14.1848790537341</v>
+      </c>
+      <c r="H539">
+        <v>0.74422300728650803</v>
+      </c>
+      <c r="I539" s="3">
+        <v>1.8099999999999401</v>
+      </c>
+      <c r="J539" s="3">
+        <v>0.219999999999799</v>
+      </c>
+      <c r="K539" s="2">
+        <v>0.13594774901866899</v>
+      </c>
+      <c r="L539" s="2">
+        <v>2.3508679200672799E-2</v>
+      </c>
+      <c r="M539" s="2">
+        <v>5.6423125685661204E-4</v>
+      </c>
+      <c r="N539" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="540" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A540">
+        <v>4</v>
+      </c>
+      <c r="B540">
+        <v>1</v>
+      </c>
+      <c r="C540">
+        <v>8</v>
+      </c>
+      <c r="D540">
+        <v>5997</v>
+      </c>
+      <c r="E540">
+        <v>0.3</v>
+      </c>
+      <c r="F540">
+        <v>-0.368828202235429</v>
+      </c>
+      <c r="G540">
+        <v>8.1866570226402793</v>
+      </c>
+      <c r="H540">
+        <v>0.74189877999799203</v>
+      </c>
+      <c r="I540" s="3">
+        <v>2.0799999999999201</v>
+      </c>
+      <c r="J540" s="3">
+        <v>0.17000000000007201</v>
+      </c>
+      <c r="K540" s="2">
+        <v>0.13600453734397799</v>
+      </c>
+      <c r="L540" s="2">
+        <v>2.37784346074143E-2</v>
+      </c>
+      <c r="M540" s="2">
+        <v>4.4960906321775499E-4</v>
+      </c>
+      <c r="N540" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="541" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A541">
+        <v>4</v>
+      </c>
+      <c r="B541">
+        <v>1</v>
+      </c>
+      <c r="C541">
+        <v>9</v>
+      </c>
+      <c r="D541">
+        <v>6030</v>
+      </c>
+      <c r="E541">
+        <v>0.3</v>
+      </c>
+      <c r="F541">
+        <v>-0.56688176084280895</v>
+      </c>
+      <c r="G541">
+        <v>8.4581688546552094</v>
+      </c>
+      <c r="H541">
+        <v>0.75102072159050304</v>
+      </c>
+      <c r="I541" s="3">
+        <v>2.3299999999999201</v>
+      </c>
+      <c r="J541" s="3">
+        <v>0.21000000000003599</v>
+      </c>
+      <c r="K541" s="2">
+        <v>0.132842406630516</v>
+      </c>
+      <c r="L541" s="2">
+        <v>2.27190491191787E-2</v>
+      </c>
+      <c r="M541" s="2">
+        <v>4.5546983393322598E-4</v>
+      </c>
+      <c r="N541" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="542" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A542">
+        <v>4</v>
+      </c>
+      <c r="B542">
+        <v>1</v>
+      </c>
+      <c r="C542">
+        <v>10</v>
+      </c>
+      <c r="D542">
+        <v>6071</v>
+      </c>
+      <c r="E542">
+        <v>0.3</v>
+      </c>
+      <c r="F542">
+        <v>1.6932716233985801</v>
+      </c>
+      <c r="G542">
+        <v>8.1189388275102292</v>
+      </c>
+      <c r="H542">
+        <v>0.74019498820334795</v>
+      </c>
+      <c r="I542" s="3">
+        <v>2.2399999999997799</v>
+      </c>
+      <c r="J542" s="3">
+        <v>9.9999999999908995E-2</v>
+      </c>
+      <c r="K542" s="2">
+        <v>0.13473266363143899</v>
+      </c>
+      <c r="L542" s="2">
+        <v>2.46624008864763E-2</v>
+      </c>
+      <c r="M542" s="2">
+        <v>1.6586114059301E-3</v>
+      </c>
+      <c r="N542" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -38052,10 +39179,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{149088EA-EE89-4913-8BD8-AB9DFE4F2867}">
-  <dimension ref="A1:P40"/>
+  <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38080,22 +39207,22 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -38105,7 +39232,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -38205,12 +39332,12 @@
         <v>2.11901244110161</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -38310,7 +39437,7 @@
         <v>2.03587533759706</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -38318,12 +39445,12 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -38423,12 +39550,12 @@
         <v>2.2016488529734701</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -38528,17 +39655,17 @@
         <v>2.03587533759706</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
@@ -38638,12 +39765,12 @@
         <v>2.3653251783409002</v>
       </c>
       <c r="P24" s="5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
@@ -38743,17 +39870,17 @@
         <v>2.3831840469922301</v>
       </c>
       <c r="P27" s="5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
@@ -38853,12 +39980,12 @@
         <v>1.77202370814236</v>
       </c>
       <c r="P32" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
@@ -38958,12 +40085,12 @@
         <v>2.2703949389878701</v>
       </c>
       <c r="P35" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
@@ -39063,7 +40190,112 @@
         <v>2.03587533759706</v>
       </c>
       <c r="P40" s="5" t="s">
-        <v>108</v>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" t="s">
+        <v>35</v>
+      </c>
+      <c r="E43" t="s">
+        <v>24</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J43" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L43" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M43" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N43" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O43" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P43" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>4</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>10</v>
+      </c>
+      <c r="D44">
+        <v>10</v>
+      </c>
+      <c r="E44">
+        <v>59534</v>
+      </c>
+      <c r="F44" s="2">
+        <v>4.1036921869121298E-4</v>
+      </c>
+      <c r="G44" s="3">
+        <v>21.599999999999898</v>
+      </c>
+      <c r="H44" s="4">
+        <v>0.27679936599319299</v>
+      </c>
+      <c r="I44" s="4">
+        <v>1.71801434202581</v>
+      </c>
+      <c r="J44" s="6">
+        <v>0.98992839530287902</v>
+      </c>
+      <c r="K44" s="2">
+        <v>4.1547037860723902E-4</v>
+      </c>
+      <c r="L44" s="5">
+        <v>0.66699999999991599</v>
+      </c>
+      <c r="M44" s="5">
+        <v>0.35407645339687799</v>
+      </c>
+      <c r="N44" s="5">
+        <v>2.3899517909939401</v>
+      </c>
+      <c r="O44" s="5">
+        <v>2.03587533759706</v>
+      </c>
+      <c r="P44" s="5" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -39074,10 +40306,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AAA7905-EEB3-4C3A-B027-599D0122CD07}">
-  <dimension ref="A1:Q58"/>
+  <dimension ref="A1:Q64"/>
   <sheetViews>
     <sheetView topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55:Q58"/>
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39103,22 +40335,22 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -39128,7 +40360,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -39234,7 +40466,7 @@
         <v>3.0403044020116701</v>
       </c>
       <c r="Q8" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -39287,7 +40519,7 @@
         <v>1.59079897632647</v>
       </c>
       <c r="Q9" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -39340,12 +40572,12 @@
         <v>1.7259339449666999</v>
       </c>
       <c r="Q10" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -39451,7 +40683,7 @@
         <v>2.8044103106396001</v>
       </c>
       <c r="Q13" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -39504,7 +40736,7 @@
         <v>2.0115346229136701</v>
       </c>
       <c r="Q14" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -39557,7 +40789,7 @@
         <v>1.2916810792379101</v>
       </c>
       <c r="Q15" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -39565,12 +40797,12 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
@@ -39676,7 +40908,7 @@
         <v>3.0713964065928301</v>
       </c>
       <c r="Q20" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
@@ -39729,7 +40961,7 @@
         <v>1.8001547766957799</v>
       </c>
       <c r="Q21" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
@@ -39782,12 +41014,12 @@
         <v>1.7333953756318099</v>
       </c>
       <c r="Q22" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
@@ -39893,7 +41125,7 @@
         <v>2.8044103106396001</v>
       </c>
       <c r="Q25" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
@@ -39946,7 +41178,7 @@
         <v>2.0115346229136701</v>
       </c>
       <c r="Q26" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
@@ -39999,17 +41231,17 @@
         <v>1.2916810792379101</v>
       </c>
       <c r="Q27" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
@@ -40115,7 +41347,7 @@
         <v>1.97872611666595</v>
       </c>
       <c r="Q32" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
@@ -40168,7 +41400,7 @@
         <v>2.47901198641578</v>
       </c>
       <c r="Q33" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
@@ -40221,12 +41453,12 @@
         <v>2.6382374319409698</v>
       </c>
       <c r="Q34" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
@@ -40332,7 +41564,7 @@
         <v>1.5979916121922599</v>
       </c>
       <c r="Q37" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
@@ -40385,7 +41617,7 @@
         <v>3.0829185761643898</v>
       </c>
       <c r="Q38" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
@@ -40438,7 +41670,7 @@
         <v>2.4686419526200298</v>
       </c>
       <c r="Q39" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
@@ -40448,7 +41680,7 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
@@ -40554,7 +41786,7 @@
         <v>1.5524591489053099</v>
       </c>
       <c r="Q44" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
@@ -40607,7 +41839,7 @@
         <v>2.14783893571034</v>
       </c>
       <c r="Q45" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
@@ -40660,12 +41892,12 @@
         <v>1.61577303981144</v>
       </c>
       <c r="Q46" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
@@ -40771,7 +42003,7 @@
         <v>2.15031319218263</v>
       </c>
       <c r="Q49" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
@@ -40824,7 +42056,7 @@
         <v>1.95348350160927</v>
       </c>
       <c r="Q50" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
@@ -40877,12 +42109,12 @@
         <v>2.7073881231716999</v>
       </c>
       <c r="Q51" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
@@ -40988,7 +42220,7 @@
         <v>2.8044103106396001</v>
       </c>
       <c r="Q56" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
@@ -41041,7 +42273,7 @@
         <v>2.0115346229136701</v>
       </c>
       <c r="Q57" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
@@ -41094,7 +42326,224 @@
         <v>1.2916810792379101</v>
       </c>
       <c r="Q58" t="s">
-        <v>108</v>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>14</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>30</v>
+      </c>
+      <c r="D61" t="s">
+        <v>20</v>
+      </c>
+      <c r="E61" t="s">
+        <v>24</v>
+      </c>
+      <c r="F61" t="s">
+        <v>35</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H61" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J61" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K61" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M61" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N61" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="O61" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="P61" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>4</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>36</v>
+      </c>
+      <c r="D62">
+        <v>10</v>
+      </c>
+      <c r="E62">
+        <v>59534</v>
+      </c>
+      <c r="F62">
+        <v>10</v>
+      </c>
+      <c r="G62" s="2">
+        <v>4.1036921869121298E-4</v>
+      </c>
+      <c r="H62" s="6">
+        <v>21.599999999999898</v>
+      </c>
+      <c r="I62" s="4">
+        <v>0.27679936599319299</v>
+      </c>
+      <c r="J62" s="4">
+        <v>1.71801434202581</v>
+      </c>
+      <c r="K62" s="6">
+        <v>0.98992839530287902</v>
+      </c>
+      <c r="L62" s="2">
+        <v>4.1547037860723902E-4</v>
+      </c>
+      <c r="M62" s="5">
+        <v>0.66699999999991599</v>
+      </c>
+      <c r="N62" s="5">
+        <v>0.41386039372997002</v>
+      </c>
+      <c r="O62" s="5">
+        <v>3.2182707043695702</v>
+      </c>
+      <c r="P62" s="5">
+        <v>2.8044103106396001</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>4</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>37</v>
+      </c>
+      <c r="D63">
+        <v>10</v>
+      </c>
+      <c r="E63">
+        <v>59534</v>
+      </c>
+      <c r="F63">
+        <v>10</v>
+      </c>
+      <c r="G63" s="2">
+        <v>4.1036921869121298E-4</v>
+      </c>
+      <c r="H63" s="6">
+        <v>21.599999999999898</v>
+      </c>
+      <c r="I63" s="4">
+        <v>0.27679936599319299</v>
+      </c>
+      <c r="J63" s="4">
+        <v>1.71801434202581</v>
+      </c>
+      <c r="K63" s="6">
+        <v>0.98992839530287902</v>
+      </c>
+      <c r="L63" s="2">
+        <v>4.1547037860723902E-4</v>
+      </c>
+      <c r="M63" s="5">
+        <v>0.66699999999991599</v>
+      </c>
+      <c r="N63" s="5">
+        <v>0.365434857858214</v>
+      </c>
+      <c r="O63" s="5">
+        <v>2.37696948077188</v>
+      </c>
+      <c r="P63" s="5">
+        <v>2.0115346229136701</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>4</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>38</v>
+      </c>
+      <c r="D64">
+        <v>10</v>
+      </c>
+      <c r="E64">
+        <v>59534</v>
+      </c>
+      <c r="F64">
+        <v>10</v>
+      </c>
+      <c r="G64" s="2">
+        <v>4.1036921869121298E-4</v>
+      </c>
+      <c r="H64" s="6">
+        <v>21.599999999999898</v>
+      </c>
+      <c r="I64" s="4">
+        <v>0.27679936599319299</v>
+      </c>
+      <c r="J64" s="4">
+        <v>1.71801434202581</v>
+      </c>
+      <c r="K64" s="6">
+        <v>0.98992839530287902</v>
+      </c>
+      <c r="L64" s="2">
+        <v>4.1547037860723902E-4</v>
+      </c>
+      <c r="M64" s="5">
+        <v>0.66699999999991599</v>
+      </c>
+      <c r="N64" s="5">
+        <v>0.28293410860245</v>
+      </c>
+      <c r="O64" s="5">
+        <v>1.57461518784036</v>
+      </c>
+      <c r="P64" s="5">
+        <v>1.2916810792379101</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
